--- a/doc/CS673_SPPP_RiskManagement_team1.xlsx
+++ b/doc/CS673_SPPP_RiskManagement_team1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="127">
   <si>
     <t>This sheet provides some common risks in student projects. You should check if it applies to your group project. 
 You should also feel free to add other risks. Exemplary analysis is also added.</t>
@@ -65,109 +65,295 @@
     <t>Status</t>
   </si>
   <si>
+    <t>Integration and deployment</t>
+  </si>
+  <si>
+    <t>Not enough time for integration and deployment</t>
+  </si>
+  <si>
+    <t>Build/config leader and all</t>
+  </si>
+  <si>
+    <t>End of class</t>
+  </si>
+  <si>
+    <t>All current code will be merged into dev branch, with any new code being developed on feature branches. This wll allow for a consistent dev build for integration testing and deployment testing.</t>
+  </si>
+  <si>
+    <t>Taken on by config leader. In progress, with potential deployment to Heroku.</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Design and implementation</t>
+  </si>
+  <si>
+    <t>Improper design</t>
+  </si>
+  <si>
+    <t>Poor architectural decisions leading to implementation, security, and reliability issues</t>
+  </si>
+  <si>
+    <t>Design/Implementation Leader and all team members</t>
+  </si>
+  <si>
+    <t>End of iteration 2</t>
+  </si>
+  <si>
+    <t>Do what we can until the end of iteration 2. For iteration 3, it's too late to make major design changes.</t>
+  </si>
+  <si>
+    <t>There are a few issues with our design, but the team has managed them by controlling scope and being realistic about what can be included for each iteration.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing </t>
+  </si>
+  <si>
+    <t>Not enough testing</t>
+  </si>
+  <si>
+    <t>self-explanatory</t>
+  </si>
+  <si>
+    <t>QA leader/security leader and all team members</t>
+  </si>
+  <si>
+    <t>End of iteration 3</t>
+  </si>
+  <si>
+    <t>Continue writing unit and integration tests through iteration 3. Increase branch coverage as high as possible.</t>
+  </si>
+  <si>
+    <t>Unit test coverage around 85% currently. Integration testing and branch coverage for unit tests will be the iteration 3 focus.</t>
+  </si>
+  <si>
+    <t>Technology competence</t>
+  </si>
+  <si>
+    <t>Not familiar with unit testing</t>
+  </si>
+  <si>
+    <t>Self explanatory</t>
+  </si>
+  <si>
+    <t>Review testing methodologies and testing metrics. Collaborate on testing when necessary.</t>
+  </si>
+  <si>
+    <t>Some issues with testing, but the team is working through them together</t>
+  </si>
+  <si>
+    <t>Management</t>
+  </si>
+  <si>
+    <t>improper task assignments</t>
+  </si>
+  <si>
+    <t>Wrong tasks assigned to wrong team members</t>
+  </si>
+  <si>
+    <t>Team leader and all members</t>
+  </si>
+  <si>
+    <t>end of class</t>
+  </si>
+  <si>
+    <t>Keep tasks in Jira organized, with clear goals for each team member during each iteration</t>
+  </si>
+  <si>
+    <t>Tasks have not been assigned to the wrong team members, but tasks in Jira aren't organized by iteration. Need to clean up Jira and align tasks with iterations.</t>
+  </si>
+  <si>
+    <t>Messy code</t>
+  </si>
+  <si>
+    <t>This code needs to clean up its room and take a shower</t>
+  </si>
+  <si>
+    <t>QA leader and all team members</t>
+  </si>
+  <si>
+    <t>Refactor when necessary. Use Sonarqube for quality scanning</t>
+  </si>
+  <si>
+    <t>With such a tight timeline, some messy code is expected. Unit testing and clean-as-we-code practices will be important in maintaining as clean a codebase as possible.</t>
+  </si>
+  <si>
+    <t>improper planning</t>
+  </si>
+  <si>
+    <t>Ineffective meetings, missing key deliverables, unclear project direction</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Meet frequently and stay in contact over discord to align on key deliverables in remaining iterations.</t>
+  </si>
+  <si>
+    <t>Deliverables have been on time as of end of iteration 1. The group as a whole is functioning well to achieve deliverables and plan for future iterations. Meetings are productive</t>
+  </si>
+  <si>
+    <t>Not familiar with the framework used</t>
+  </si>
+  <si>
+    <t>Using Spring Boot and React</t>
+  </si>
+  <si>
+    <t>Design/Implementation Leader, security leader and all team members</t>
+  </si>
+  <si>
+    <t>Team members who are more familiar with the frameworks should collaborate and provide assistance when they can.</t>
+  </si>
+  <si>
+    <t>This risk will likely remain open through the end of the class, due to the shortened timeline.</t>
+  </si>
+  <si>
+    <t>Communication</t>
+  </si>
+  <si>
+    <t>duplicate work</t>
+  </si>
+  <si>
+    <t>Team members independently complete the same documentation or feature</t>
+  </si>
+  <si>
+    <t>team leader and all members</t>
+  </si>
+  <si>
+    <t>Keep doing what we're doing. Having each team member give a small status update at each meeting is helpful to avoid duplicate work.</t>
+  </si>
+  <si>
+    <t>Work has been split among team members. Distinct tasks and areas have prevented this from being an issue.</t>
+  </si>
+  <si>
+    <t>inconsistent work</t>
+  </si>
+  <si>
+    <t>Variable output from week to week</t>
+  </si>
+  <si>
+    <t>Check in during team meetings, make sure everyone has support if life comes up or if that week's tasks are particularly time consuming.</t>
+  </si>
+  <si>
+    <t>No issues so far</t>
+  </si>
+  <si>
+    <t>lack of management skills</t>
+  </si>
+  <si>
+    <t>Let's be real, we're not C-suite executives. Unless you are, in which case my apologies!</t>
+  </si>
+  <si>
+    <t>Do our best! Communicate constantly, be respectful, open, and honest</t>
+  </si>
+  <si>
+    <t>Team is working well together to control scope and manage distribution of responsibilities. No management issues</t>
+  </si>
+  <si>
+    <t>Not familiar with Git</t>
+  </si>
+  <si>
+    <t>Configuration leader and all team members</t>
+  </si>
+  <si>
+    <t>Start/middle of iteration 1</t>
+  </si>
+  <si>
+    <t>Monitor commits and keep branches clean by following branching strategy laid out by config leader.</t>
+  </si>
+  <si>
+    <t>So far so good. As a team, our repo is a little messy. But everyone is familiar with Git and has pushed code successfully.</t>
+  </si>
+  <si>
+    <t>Personnel</t>
+  </si>
+  <si>
+    <t>Lack of motivation or responsibility</t>
+  </si>
+  <si>
+    <t>One or more team members have not been given engaging or important tasks</t>
+  </si>
+  <si>
+    <t>All team members</t>
+  </si>
+  <si>
+    <t>Check in each week with each team member. How are your tasks going? Is there enough to do? Do you need support?</t>
+  </si>
+  <si>
+    <t>All team members are involved and working to help the group succeed</t>
+  </si>
+  <si>
+    <t>Closed</t>
+  </si>
+  <si>
     <t xml:space="preserve">Requirements </t>
   </si>
   <si>
+    <t>unclear requirements</t>
+  </si>
+  <si>
+    <t>Features are not described in explicit detail. Not enough information to begin implementation</t>
+  </si>
+  <si>
+    <t>Requirements leader and all team members</t>
+  </si>
+  <si>
+    <t>middle of iteration 1</t>
+  </si>
+  <si>
+    <t>Send out user surveys to gain insight into potential features. Discuss and refine requirements in meetings during weeks 1 and 2</t>
+  </si>
+  <si>
+    <t>All planned requirements are detailed and clear.</t>
+  </si>
+  <si>
+    <t>worked on wrong components</t>
+  </si>
+  <si>
+    <t>Tasks were not detailed enough, work completed for wrong area of the project</t>
+  </si>
+  <si>
+    <t>End of iteration 1</t>
+  </si>
+  <si>
+    <t>Use team meetings and Jira tasks to ensure that everyone's responsibilities are clear</t>
+  </si>
+  <si>
+    <t>Everybody has their assigned areas and tasks are clear. No confusion as to who is working on what.</t>
+  </si>
+  <si>
+    <t>add new team members</t>
+  </si>
+  <si>
+    <t>Redefine scope and split current tasks if necessary</t>
+  </si>
+  <si>
+    <t>I hope we don't add more team members....</t>
+  </si>
+  <si>
+    <t>Loss team members</t>
+  </si>
+  <si>
+    <t>One or more team members drop the class</t>
+  </si>
+  <si>
+    <t>Redefine the project scope if necessary, and assign the tasks to other team members.</t>
+  </si>
+  <si>
+    <t>Nobody is dropping the class at this point</t>
+  </si>
+  <si>
     <t>scope creep</t>
   </si>
   <si>
     <t>Scope expands without being properly managed</t>
   </si>
   <si>
-    <t>Requirements leader and all team members</t>
-  </si>
-  <si>
-    <t>End of iteration 2</t>
-  </si>
-  <si>
     <t>Keep requirements focused on key features, discuss requirement additions at team meetings before officially adding them to the project</t>
   </si>
   <si>
-    <t>Iteration 1 will be first iteration requiring code deliverable. Scope has been controlled so far. Group is doing well to decide what priorities are.</t>
-  </si>
-  <si>
-    <t>Open</t>
-  </si>
-  <si>
-    <t>Communication</t>
-  </si>
-  <si>
-    <t>duplicate work</t>
-  </si>
-  <si>
-    <t>Team members independently complete the same documentation or feature</t>
-  </si>
-  <si>
-    <t>team leader and all members</t>
-  </si>
-  <si>
-    <t>end of class</t>
-  </si>
-  <si>
-    <t>Align with team on some key back-end features at Sunday, 9/23 meeting</t>
-  </si>
-  <si>
-    <t>No duplicate front-end work. Some duplicate back-end work</t>
-  </si>
-  <si>
-    <t>Management</t>
-  </si>
-  <si>
-    <t>improper task assignments</t>
-  </si>
-  <si>
-    <t>Wrong tasks assigned to wrong team members</t>
-  </si>
-  <si>
-    <t>Team leader and all members</t>
-  </si>
-  <si>
-    <t>Keep tasks in Jira organized, with clear goals for each team member during each iteration</t>
-  </si>
-  <si>
-    <t>End of iteration 1, no issues with tasks being assigned to wrong team members so far</t>
-  </si>
-  <si>
-    <t>unclear requirements</t>
-  </si>
-  <si>
-    <t>Features are not described in explicit detail. Not enough information to begin implementation</t>
-  </si>
-  <si>
-    <t>middle of iteration 1</t>
-  </si>
-  <si>
-    <t>Send out user surveys to gain insight into potential features. Discuss and refine requirements in meetings during weeks 1 and 2</t>
-  </si>
-  <si>
-    <t>End of iteration 1, requirements are clear and detailed.</t>
-  </si>
-  <si>
-    <t>improper planning</t>
-  </si>
-  <si>
-    <t>Ineffective meetings, missing key deliverables, unclear project direction</t>
-  </si>
-  <si>
-    <t>All</t>
-  </si>
-  <si>
-    <t>Meetings will happen Thursdays after class and Sunday evenings to review current project direction/status and tasks for the week</t>
-  </si>
-  <si>
-    <t>Deliverables have been on time as of end of iteration 1. The group as a whole is functioning well to achieve deliverables and plan for future iterations. Meetings are productive</t>
-  </si>
-  <si>
-    <t>lack of management skills</t>
-  </si>
-  <si>
-    <t>Let's be real, we're not C-suite executives. Unless you are, in which case my apologies!</t>
-  </si>
-  <si>
-    <t>Do our best! Communicate constantly, be respectful, open, and honest</t>
-  </si>
-  <si>
-    <t>Team is working well together to control scope and manage distribution of responsibilities. No management issues</t>
+    <t>Scope creep is not an issue. If anything we'll be cutting scope</t>
   </si>
   <si>
     <t>constant requirements changes</t>
@@ -182,79 +368,16 @@
     <t>Requirements are stable</t>
   </si>
   <si>
-    <t>Tentative completion</t>
-  </si>
-  <si>
-    <t>Technology competence</t>
-  </si>
-  <si>
-    <t>Not familiar with the framework used</t>
-  </si>
-  <si>
-    <t>Using Spring Boot and React</t>
-  </si>
-  <si>
-    <t>Design/Implementation Leader, security leader and all team members</t>
-  </si>
-  <si>
-    <t>End of iteration 1</t>
-  </si>
-  <si>
-    <t>Team members can research Spring Boot in general, and from the perspective of their assigned area, be it config, testing, security, data model/design, etc...</t>
-  </si>
-  <si>
-    <t>Towards the end of iteration 1, all team members have been researching and are up to speed with project technologies.</t>
-  </si>
-  <si>
-    <t>worked on wrong components</t>
-  </si>
-  <si>
-    <t>Tasks were not detailed enough, work completed for wrong area of the project</t>
-  </si>
-  <si>
-    <t>Use team meetings and Jira tasks to ensure that everyone's responsibilities are clear</t>
-  </si>
-  <si>
-    <t>No issues so far</t>
-  </si>
-  <si>
-    <t>inconsistent work</t>
-  </si>
-  <si>
-    <t>Variable output from week to week</t>
-  </si>
-  <si>
-    <t>Check in during team meetings, make sure everyone has support if life comes up or if that week's tasks are particularly time consuming.</t>
-  </si>
-  <si>
     <t>Not familiar with the programming language used</t>
   </si>
   <si>
-    <t>Using Java</t>
-  </si>
-  <si>
-    <t>All team members</t>
+    <t>Using Javascript and Java</t>
   </si>
   <si>
     <t>Research Java from perspective of assigned area if necessary</t>
   </si>
   <si>
-    <t>No data yet</t>
-  </si>
-  <si>
-    <t>Not familiar with Git</t>
-  </si>
-  <si>
-    <t>Configuration leader and all team members</t>
-  </si>
-  <si>
-    <t>Start/middle of iteration 1</t>
-  </si>
-  <si>
-    <t>Lab1 will help us become familiar. Discuss git usage (branching, commits, etc..) during week 1 and 2 meetings if possible.</t>
-  </si>
-  <si>
-    <t>In progress</t>
+    <t>All team members are familiar with the programming languages.</t>
   </si>
   <si>
     <t>Other technology unfamiliarity</t>
@@ -266,16 +389,7 @@
     <t>Confirm tools to be used during project, research any that we're unfamiliar with</t>
   </si>
   <si>
-    <t>Personnel</t>
-  </si>
-  <si>
-    <t>Lack of motivation or responsibility</t>
-  </si>
-  <si>
-    <t>One or more team members have not been given engaging or important tasks</t>
-  </si>
-  <si>
-    <t>Check in each week with each team member. How are your tasks going? Is there enough to do? Do you need support?</t>
+    <t>No unfamiliarity with other technologies</t>
   </si>
   <si>
     <t>useless work</t>
@@ -287,64 +401,10 @@
     <t>Discuss planned tasks together, update Jira to reflect current priorities</t>
   </si>
   <si>
-    <t>No issues</t>
-  </si>
-  <si>
-    <t>add new team members</t>
-  </si>
-  <si>
-    <t>Redefine scope and split current tasks if necessary</t>
-  </si>
-  <si>
-    <t>No one added yet</t>
-  </si>
-  <si>
-    <t>Loss team members</t>
-  </si>
-  <si>
-    <t>One or more team members drop the class</t>
-  </si>
-  <si>
-    <t>Redefine the project scope if necessary, and assign the tasks to other team members.</t>
-  </si>
-  <si>
-    <t>No one dropped the class so far</t>
-  </si>
-  <si>
-    <t>Not familiar with unit testing</t>
-  </si>
-  <si>
-    <t>QA leader/security leader and all team members</t>
-  </si>
-  <si>
-    <t>Design and implementation</t>
-  </si>
-  <si>
-    <t>Improper design</t>
-  </si>
-  <si>
-    <t>Design/Implementation Leader and all team members</t>
+    <t>No work is being completed that's unrelated, but Jira needs to be updated more consistently</t>
   </si>
   <si>
     <t>improper technology stack</t>
-  </si>
-  <si>
-    <t>Messy code</t>
-  </si>
-  <si>
-    <t>QA leader and all team members</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Testing </t>
-  </si>
-  <si>
-    <t>Not enough testing</t>
-  </si>
-  <si>
-    <t>Integration and deployment</t>
-  </si>
-  <si>
-    <t>Not enough time for integration and deployment</t>
   </si>
 </sst>
 </file>
@@ -377,12 +437,12 @@
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <color rgb="FF000000"/>
+      <b/>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -412,7 +472,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -426,41 +486,44 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
@@ -761,146 +824,144 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="3">
-        <v>9.0</v>
-      </c>
-      <c r="B3" s="3" t="s">
+        <v>23.0</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4"/>
+      <c r="E3" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="F3" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="G3" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="H3" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="F3" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="G3" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="H3" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="5"/>
-      <c r="AB3" s="5"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="3">
+        <v>19.0</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="6">
         <v>4.0</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="F4" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="G4" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="H4" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="F4" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="G4" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="H4" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="I4" s="7" t="s">
+      <c r="J4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="K4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="M4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
-      <c r="AA4" s="5"/>
-      <c r="AB4" s="5"/>
+        <v>19</v>
+      </c>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="7"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="3">
-        <v>11.0</v>
-      </c>
-      <c r="B5" s="6" t="s">
+        <v>22.0</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="G5" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="H5" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F5" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="G5" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="H5" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="I5" s="3" t="s">
+      <c r="J5" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>32</v>
@@ -909,54 +970,54 @@
         <v>33</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="5"/>
-      <c r="AB5" s="5"/>
+        <v>19</v>
+      </c>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>13</v>
+        <v>16.0</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="4">
+        <v>36</v>
+      </c>
+      <c r="E6" s="6">
         <v>2.0</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="G6" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="H6" s="6">
         <v>4.0</v>
       </c>
-      <c r="G6" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="H6" s="4">
-        <v>6.0</v>
-      </c>
       <c r="I6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>37</v>
@@ -965,635 +1026,631 @@
         <v>38</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
-      <c r="AA6" s="5"/>
-      <c r="AB6" s="5"/>
+        <v>19</v>
+      </c>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="3">
-        <v>12.0</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>28</v>
+        <v>11.0</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="4">
+        <v>41</v>
+      </c>
+      <c r="E7" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="F7" s="6">
         <v>3.0</v>
       </c>
-      <c r="F7" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="G7" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="H7" s="4">
-        <v>7.0</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>25</v>
+      <c r="G7" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="H7" s="6">
+        <v>5.0</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="5"/>
-      <c r="AA7" s="5"/>
-      <c r="AB7" s="5"/>
+        <v>19</v>
+      </c>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="3">
-        <v>13.0</v>
+        <v>21.0</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>44</v>
+        <v>20</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="F8" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="G8" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="H8" s="4">
-        <v>8.0</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>25</v>
+        <v>47</v>
+      </c>
+      <c r="E8" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="F8" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="G8" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="H8" s="6">
+        <v>6.0</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="5"/>
-      <c r="AA8" s="5"/>
-      <c r="AB8" s="5"/>
+        <v>19</v>
+      </c>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="3">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F9" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="G9" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="H9" s="4">
-        <v>9.0</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>36</v>
+        <v>52</v>
+      </c>
+      <c r="E9" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="F9" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="G9" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="H9" s="6">
+        <v>7.0</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="5"/>
-      <c r="AA9" s="5"/>
-      <c r="AB9" s="5"/>
+        <v>19</v>
+      </c>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="3">
         <v>14.0</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>53</v>
+      <c r="B10" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="4">
+        <v>57</v>
+      </c>
+      <c r="E10" s="6">
         <v>2.0</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="6">
         <v>2.0</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="6">
         <v>2.0</v>
       </c>
-      <c r="H10" s="4">
-        <v>11.0</v>
+      <c r="H10" s="6">
+        <v>8.0</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="5"/>
-      <c r="Z10" s="5"/>
-      <c r="AA10" s="5"/>
-      <c r="AB10" s="5"/>
+        <v>19</v>
+      </c>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="7"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>21</v>
+        <v>4.0</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="4">
+        <v>63</v>
+      </c>
+      <c r="E11" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="F11" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="G11" s="6">
         <v>2.0</v>
       </c>
-      <c r="F11" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="G11" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="H11" s="4">
-        <v>12.0</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>57</v>
+      <c r="H11" s="6">
+        <v>9.0</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="5"/>
-      <c r="AA11" s="5"/>
-      <c r="AB11" s="5"/>
+        <v>19</v>
+      </c>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="7"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="3">
         <v>7.0</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>67</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" s="4">
+        <v>68</v>
+      </c>
+      <c r="E12" s="6">
         <v>3.0</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="6">
         <v>3.0</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="6">
         <v>3.0</v>
       </c>
-      <c r="H12" s="4">
-        <v>13.0</v>
+      <c r="H12" s="6">
+        <v>10.0</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>25</v>
+        <v>53</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="5"/>
-      <c r="AA12" s="5"/>
-      <c r="AB12" s="5"/>
+        <v>19</v>
+      </c>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="7"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="3">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="F13" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="G13" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="H13" s="6">
+        <v>11.0</v>
+      </c>
+      <c r="I13" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F13" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="G13" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="H13" s="4">
-        <v>14.0</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>36</v>
+      <c r="J13" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
-      <c r="W13" s="5"/>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="5"/>
-      <c r="Z13" s="5"/>
-      <c r="AA13" s="5"/>
-      <c r="AB13" s="5"/>
+        <v>19</v>
+      </c>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="7"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="3">
         <v>18.0</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="4">
+        <v>75</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="6">
         <v>1.0</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="6">
         <v>4.0</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="6">
         <v>2.0</v>
       </c>
-      <c r="H14" s="4">
-        <v>15.0</v>
+      <c r="H14" s="6">
+        <v>12.0</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="5"/>
-      <c r="AA14" s="5"/>
-      <c r="AB14" s="5"/>
+        <v>19</v>
+      </c>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="7"/>
+      <c r="AB14" s="7"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="3">
-        <v>17.0</v>
+        <v>3.0</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="4">
+        <v>80</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="6">
         <v>1.0</v>
       </c>
-      <c r="F15" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="G15" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="H15" s="4">
-        <v>16.0</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>78</v>
+      <c r="F15" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="G15" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="5"/>
-      <c r="AA15" s="5"/>
-      <c r="AB15" s="5"/>
+        <v>86</v>
+      </c>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="7"/>
+      <c r="AB15" s="7"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>80</v>
+        <v>8.0</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E16" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F16" s="4">
+        <v>89</v>
+      </c>
+      <c r="E16" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="F16" s="6">
         <v>4.0</v>
       </c>
-      <c r="G16" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="H16" s="4">
-        <v>17.0</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>25</v>
+      <c r="G16" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>91</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="5"/>
-      <c r="AA16" s="5"/>
-      <c r="AB16" s="5"/>
+        <v>86</v>
+      </c>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="7"/>
+      <c r="AA16" s="7"/>
+      <c r="AB16" s="7"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>21</v>
+        <v>5.0</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E17" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F17" s="4">
+        <v>95</v>
+      </c>
+      <c r="E17" s="6">
         <v>2.0</v>
       </c>
-      <c r="G17" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="H17" s="4">
-        <v>20.0</v>
-      </c>
+      <c r="F17" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="G17" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="H17" s="6"/>
       <c r="I17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>78</v>
+        <v>53</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>96</v>
       </c>
       <c r="K17" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="M17" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="5"/>
-      <c r="AA17" s="5"/>
-      <c r="AB17" s="5"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="7"/>
+      <c r="AA17" s="7"/>
+      <c r="AB17" s="7"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="3">
@@ -1603,51 +1660,49 @@
         <v>80</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="4">
+        <v>99</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="6">
         <v>1.0</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="6">
         <v>2.0</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="6">
         <v>2.0</v>
       </c>
-      <c r="H18" s="4">
-        <v>30.0</v>
-      </c>
+      <c r="H18" s="6"/>
       <c r="I18" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="J18" s="10">
+        <v>83</v>
+      </c>
+      <c r="J18" s="11">
         <v>45180.0</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
-      <c r="W18" s="5"/>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="5"/>
-      <c r="Z18" s="5"/>
-      <c r="AA18" s="5"/>
-      <c r="AB18" s="5"/>
+        <v>86</v>
+      </c>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="7"/>
+      <c r="AA18" s="7"/>
+      <c r="AB18" s="7"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="3">
@@ -1657,914 +1712,979 @@
         <v>80</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="E19" s="12">
+        <v>102</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" s="13">
         <v>2.0</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="13">
         <v>4.0</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="13">
         <v>4.0</v>
       </c>
-      <c r="H19" s="12">
-        <f>(6-E19)*(6-F19)*G19</f>
-        <v>32</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="J19" s="13"/>
-      <c r="K19" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="L19" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="M19" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="5"/>
-      <c r="AA19" s="5"/>
-      <c r="AB19" s="5"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="J19" s="14"/>
+      <c r="K19" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="L19" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="M19" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="7"/>
+      <c r="AB19" s="7"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="3">
-        <v>16.0</v>
+        <v>9.0</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
+        <v>106</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="F20" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="G20" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="H20" s="6"/>
       <c r="I20" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="J20" s="15"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
+        <v>90</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="M20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
-      <c r="W20" s="5"/>
-      <c r="X20" s="5"/>
-      <c r="Y20" s="5"/>
-      <c r="Z20" s="5"/>
-      <c r="AA20" s="5"/>
-      <c r="AB20" s="5"/>
+        <v>86</v>
+      </c>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="7"/>
+      <c r="AA20" s="7"/>
+      <c r="AB20" s="7"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="3">
-        <v>19.0</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>97</v>
+        <v>10.0</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
+        <v>110</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E21" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="F21" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="G21" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="H21" s="6"/>
       <c r="I21" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="J21" s="15"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
+        <v>90</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="M21" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="5"/>
-      <c r="W21" s="5"/>
-      <c r="X21" s="5"/>
-      <c r="Y21" s="5"/>
-      <c r="Z21" s="5"/>
-      <c r="AA21" s="5"/>
-      <c r="AB21" s="5"/>
+        <v>86</v>
+      </c>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="7"/>
+      <c r="AA21" s="7"/>
+      <c r="AB21" s="7"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="3">
-        <v>20.0</v>
+        <v>15.0</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
+        <v>114</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E22" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="F22" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="G22" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="H22" s="6"/>
       <c r="I22" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J22" s="15"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
+        <v>83</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>117</v>
+      </c>
       <c r="M22" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="5"/>
-      <c r="W22" s="5"/>
-      <c r="X22" s="5"/>
-      <c r="Y22" s="5"/>
-      <c r="Z22" s="5"/>
-      <c r="AA22" s="5"/>
-      <c r="AB22" s="5"/>
+        <v>86</v>
+      </c>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="7"/>
+      <c r="Y22" s="7"/>
+      <c r="Z22" s="7"/>
+      <c r="AA22" s="7"/>
+      <c r="AB22" s="7"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="3">
-        <v>21.0</v>
+        <v>17.0</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
+        <v>34</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="F23" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="G23" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H23" s="6"/>
       <c r="I23" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="J23" s="15"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
+        <v>76</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="M23" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
-      <c r="V23" s="5"/>
-      <c r="W23" s="5"/>
-      <c r="X23" s="5"/>
-      <c r="Y23" s="5"/>
-      <c r="Z23" s="5"/>
-      <c r="AA23" s="5"/>
-      <c r="AB23" s="5"/>
+        <v>86</v>
+      </c>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="7"/>
+      <c r="AA23" s="7"/>
+      <c r="AB23" s="7"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="3">
-        <v>22.0</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>103</v>
+        <v>6.0</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
+        <v>122</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E24" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="F24" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="G24" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H24" s="6"/>
       <c r="I24" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="J24" s="15"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
+        <v>53</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>125</v>
+      </c>
       <c r="M24" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="5"/>
-      <c r="W24" s="5"/>
-      <c r="X24" s="5"/>
-      <c r="Y24" s="5"/>
-      <c r="Z24" s="5"/>
-      <c r="AA24" s="5"/>
-      <c r="AB24" s="5"/>
+        <v>86</v>
+      </c>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="7"/>
+      <c r="X24" s="7"/>
+      <c r="Y24" s="7"/>
+      <c r="Z24" s="7"/>
+      <c r="AA24" s="7"/>
+      <c r="AB24" s="7"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="3">
-        <v>23.0</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
+        <v>20.0</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
       <c r="I25" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J25" s="15"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
+        <v>53</v>
+      </c>
+      <c r="J25" s="17"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
       <c r="M25" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="5"/>
-      <c r="W25" s="5"/>
-      <c r="X25" s="5"/>
-      <c r="Y25" s="5"/>
-      <c r="Z25" s="5"/>
-      <c r="AA25" s="5"/>
-      <c r="AB25" s="5"/>
+        <v>86</v>
+      </c>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="7"/>
+      <c r="Y25" s="7"/>
+      <c r="Z25" s="7"/>
+      <c r="AA25" s="7"/>
+      <c r="AB25" s="7"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="5"/>
-      <c r="S26" s="5"/>
-      <c r="T26" s="5"/>
-      <c r="U26" s="5"/>
-      <c r="V26" s="5"/>
-      <c r="W26" s="5"/>
-      <c r="X26" s="5"/>
-      <c r="Y26" s="5"/>
-      <c r="Z26" s="5"/>
-      <c r="AA26" s="5"/>
-      <c r="AB26" s="5"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="7"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="7"/>
+      <c r="X26" s="7"/>
+      <c r="Y26" s="7"/>
+      <c r="Z26" s="7"/>
+      <c r="AA26" s="7"/>
+      <c r="AB26" s="7"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="5"/>
-      <c r="S27" s="5"/>
-      <c r="T27" s="5"/>
-      <c r="U27" s="5"/>
-      <c r="V27" s="5"/>
-      <c r="W27" s="5"/>
-      <c r="X27" s="5"/>
-      <c r="Y27" s="5"/>
-      <c r="Z27" s="5"/>
-      <c r="AA27" s="5"/>
-      <c r="AB27" s="5"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
+      <c r="V27" s="7"/>
+      <c r="W27" s="7"/>
+      <c r="X27" s="7"/>
+      <c r="Y27" s="7"/>
+      <c r="Z27" s="7"/>
+      <c r="AA27" s="7"/>
+      <c r="AB27" s="7"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="5"/>
-      <c r="S28" s="5"/>
-      <c r="T28" s="5"/>
-      <c r="U28" s="5"/>
-      <c r="V28" s="5"/>
-      <c r="W28" s="5"/>
-      <c r="X28" s="5"/>
-      <c r="Y28" s="5"/>
-      <c r="Z28" s="5"/>
-      <c r="AA28" s="5"/>
-      <c r="AB28" s="5"/>
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="7"/>
+      <c r="V28" s="7"/>
+      <c r="W28" s="7"/>
+      <c r="X28" s="7"/>
+      <c r="Y28" s="7"/>
+      <c r="Z28" s="7"/>
+      <c r="AA28" s="7"/>
+      <c r="AB28" s="7"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="5"/>
-      <c r="S29" s="5"/>
-      <c r="T29" s="5"/>
-      <c r="U29" s="5"/>
-      <c r="V29" s="5"/>
-      <c r="W29" s="5"/>
-      <c r="X29" s="5"/>
-      <c r="Y29" s="5"/>
-      <c r="Z29" s="5"/>
-      <c r="AA29" s="5"/>
-      <c r="AB29" s="5"/>
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7"/>
+      <c r="S29" s="7"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="7"/>
+      <c r="V29" s="7"/>
+      <c r="W29" s="7"/>
+      <c r="X29" s="7"/>
+      <c r="Y29" s="7"/>
+      <c r="Z29" s="7"/>
+      <c r="AA29" s="7"/>
+      <c r="AB29" s="7"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="5"/>
-      <c r="R30" s="5"/>
-      <c r="S30" s="5"/>
-      <c r="T30" s="5"/>
-      <c r="U30" s="5"/>
-      <c r="V30" s="5"/>
-      <c r="W30" s="5"/>
-      <c r="X30" s="5"/>
-      <c r="Y30" s="5"/>
-      <c r="Z30" s="5"/>
-      <c r="AA30" s="5"/>
-      <c r="AB30" s="5"/>
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7"/>
+      <c r="S30" s="7"/>
+      <c r="T30" s="7"/>
+      <c r="U30" s="7"/>
+      <c r="V30" s="7"/>
+      <c r="W30" s="7"/>
+      <c r="X30" s="7"/>
+      <c r="Y30" s="7"/>
+      <c r="Z30" s="7"/>
+      <c r="AA30" s="7"/>
+      <c r="AB30" s="7"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="5"/>
-      <c r="R31" s="5"/>
-      <c r="S31" s="5"/>
-      <c r="T31" s="5"/>
-      <c r="U31" s="5"/>
-      <c r="V31" s="5"/>
-      <c r="W31" s="5"/>
-      <c r="X31" s="5"/>
-      <c r="Y31" s="5"/>
-      <c r="Z31" s="5"/>
-      <c r="AA31" s="5"/>
-      <c r="AB31" s="5"/>
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7"/>
+      <c r="S31" s="7"/>
+      <c r="T31" s="7"/>
+      <c r="U31" s="7"/>
+      <c r="V31" s="7"/>
+      <c r="W31" s="7"/>
+      <c r="X31" s="7"/>
+      <c r="Y31" s="7"/>
+      <c r="Z31" s="7"/>
+      <c r="AA31" s="7"/>
+      <c r="AB31" s="7"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="5"/>
-      <c r="R32" s="5"/>
-      <c r="S32" s="5"/>
-      <c r="T32" s="5"/>
-      <c r="U32" s="5"/>
-      <c r="V32" s="5"/>
-      <c r="W32" s="5"/>
-      <c r="X32" s="5"/>
-      <c r="Y32" s="5"/>
-      <c r="Z32" s="5"/>
-      <c r="AA32" s="5"/>
-      <c r="AB32" s="5"/>
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="7"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="7"/>
+      <c r="V32" s="7"/>
+      <c r="W32" s="7"/>
+      <c r="X32" s="7"/>
+      <c r="Y32" s="7"/>
+      <c r="Z32" s="7"/>
+      <c r="AA32" s="7"/>
+      <c r="AB32" s="7"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5"/>
-      <c r="V33" s="5"/>
-      <c r="W33" s="5"/>
-      <c r="X33" s="5"/>
-      <c r="Y33" s="5"/>
-      <c r="Z33" s="5"/>
-      <c r="AA33" s="5"/>
-      <c r="AB33" s="5"/>
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7"/>
+      <c r="S33" s="7"/>
+      <c r="T33" s="7"/>
+      <c r="U33" s="7"/>
+      <c r="V33" s="7"/>
+      <c r="W33" s="7"/>
+      <c r="X33" s="7"/>
+      <c r="Y33" s="7"/>
+      <c r="Z33" s="7"/>
+      <c r="AA33" s="7"/>
+      <c r="AB33" s="7"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="5"/>
-      <c r="R34" s="5"/>
-      <c r="S34" s="5"/>
-      <c r="T34" s="5"/>
-      <c r="U34" s="5"/>
-      <c r="V34" s="5"/>
-      <c r="W34" s="5"/>
-      <c r="X34" s="5"/>
-      <c r="Y34" s="5"/>
-      <c r="Z34" s="5"/>
-      <c r="AA34" s="5"/>
-      <c r="AB34" s="5"/>
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
+      <c r="S34" s="7"/>
+      <c r="T34" s="7"/>
+      <c r="U34" s="7"/>
+      <c r="V34" s="7"/>
+      <c r="W34" s="7"/>
+      <c r="X34" s="7"/>
+      <c r="Y34" s="7"/>
+      <c r="Z34" s="7"/>
+      <c r="AA34" s="7"/>
+      <c r="AB34" s="7"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
-      <c r="O35" s="5"/>
-      <c r="P35" s="5"/>
-      <c r="Q35" s="5"/>
-      <c r="R35" s="5"/>
-      <c r="S35" s="5"/>
-      <c r="T35" s="5"/>
-      <c r="U35" s="5"/>
-      <c r="V35" s="5"/>
-      <c r="W35" s="5"/>
-      <c r="X35" s="5"/>
-      <c r="Y35" s="5"/>
-      <c r="Z35" s="5"/>
-      <c r="AA35" s="5"/>
-      <c r="AB35" s="5"/>
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="7"/>
+      <c r="S35" s="7"/>
+      <c r="T35" s="7"/>
+      <c r="U35" s="7"/>
+      <c r="V35" s="7"/>
+      <c r="W35" s="7"/>
+      <c r="X35" s="7"/>
+      <c r="Y35" s="7"/>
+      <c r="Z35" s="7"/>
+      <c r="AA35" s="7"/>
+      <c r="AB35" s="7"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
-      <c r="O36" s="5"/>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="5"/>
-      <c r="R36" s="5"/>
-      <c r="S36" s="5"/>
-      <c r="T36" s="5"/>
-      <c r="U36" s="5"/>
-      <c r="V36" s="5"/>
-      <c r="W36" s="5"/>
-      <c r="X36" s="5"/>
-      <c r="Y36" s="5"/>
-      <c r="Z36" s="5"/>
-      <c r="AA36" s="5"/>
-      <c r="AB36" s="5"/>
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="7"/>
+      <c r="S36" s="7"/>
+      <c r="T36" s="7"/>
+      <c r="U36" s="7"/>
+      <c r="V36" s="7"/>
+      <c r="W36" s="7"/>
+      <c r="X36" s="7"/>
+      <c r="Y36" s="7"/>
+      <c r="Z36" s="7"/>
+      <c r="AA36" s="7"/>
+      <c r="AB36" s="7"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="5"/>
-      <c r="O37" s="5"/>
-      <c r="P37" s="5"/>
-      <c r="Q37" s="5"/>
-      <c r="R37" s="5"/>
-      <c r="S37" s="5"/>
-      <c r="T37" s="5"/>
-      <c r="U37" s="5"/>
-      <c r="V37" s="5"/>
-      <c r="W37" s="5"/>
-      <c r="X37" s="5"/>
-      <c r="Y37" s="5"/>
-      <c r="Z37" s="5"/>
-      <c r="AA37" s="5"/>
-      <c r="AB37" s="5"/>
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7"/>
+      <c r="R37" s="7"/>
+      <c r="S37" s="7"/>
+      <c r="T37" s="7"/>
+      <c r="U37" s="7"/>
+      <c r="V37" s="7"/>
+      <c r="W37" s="7"/>
+      <c r="X37" s="7"/>
+      <c r="Y37" s="7"/>
+      <c r="Z37" s="7"/>
+      <c r="AA37" s="7"/>
+      <c r="AB37" s="7"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="5"/>
-      <c r="P38" s="5"/>
-      <c r="Q38" s="5"/>
-      <c r="R38" s="5"/>
-      <c r="S38" s="5"/>
-      <c r="T38" s="5"/>
-      <c r="U38" s="5"/>
-      <c r="V38" s="5"/>
-      <c r="W38" s="5"/>
-      <c r="X38" s="5"/>
-      <c r="Y38" s="5"/>
-      <c r="Z38" s="5"/>
-      <c r="AA38" s="5"/>
-      <c r="AB38" s="5"/>
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="7"/>
+      <c r="S38" s="7"/>
+      <c r="T38" s="7"/>
+      <c r="U38" s="7"/>
+      <c r="V38" s="7"/>
+      <c r="W38" s="7"/>
+      <c r="X38" s="7"/>
+      <c r="Y38" s="7"/>
+      <c r="Z38" s="7"/>
+      <c r="AA38" s="7"/>
+      <c r="AB38" s="7"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
-      <c r="N39" s="5"/>
-      <c r="O39" s="5"/>
-      <c r="P39" s="5"/>
-      <c r="Q39" s="5"/>
-      <c r="R39" s="5"/>
-      <c r="S39" s="5"/>
-      <c r="T39" s="5"/>
-      <c r="U39" s="5"/>
-      <c r="V39" s="5"/>
-      <c r="W39" s="5"/>
-      <c r="X39" s="5"/>
-      <c r="Y39" s="5"/>
-      <c r="Z39" s="5"/>
-      <c r="AA39" s="5"/>
-      <c r="AB39" s="5"/>
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="7"/>
+      <c r="S39" s="7"/>
+      <c r="T39" s="7"/>
+      <c r="U39" s="7"/>
+      <c r="V39" s="7"/>
+      <c r="W39" s="7"/>
+      <c r="X39" s="7"/>
+      <c r="Y39" s="7"/>
+      <c r="Z39" s="7"/>
+      <c r="AA39" s="7"/>
+      <c r="AB39" s="7"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
-      <c r="N40" s="5"/>
-      <c r="O40" s="5"/>
-      <c r="P40" s="5"/>
-      <c r="Q40" s="5"/>
-      <c r="R40" s="5"/>
-      <c r="S40" s="5"/>
-      <c r="T40" s="5"/>
-      <c r="U40" s="5"/>
-      <c r="V40" s="5"/>
-      <c r="W40" s="5"/>
-      <c r="X40" s="5"/>
-      <c r="Y40" s="5"/>
-      <c r="Z40" s="5"/>
-      <c r="AA40" s="5"/>
-      <c r="AB40" s="5"/>
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="7"/>
+      <c r="S40" s="7"/>
+      <c r="T40" s="7"/>
+      <c r="U40" s="7"/>
+      <c r="V40" s="7"/>
+      <c r="W40" s="7"/>
+      <c r="X40" s="7"/>
+      <c r="Y40" s="7"/>
+      <c r="Z40" s="7"/>
+      <c r="AA40" s="7"/>
+      <c r="AB40" s="7"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="6"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
-      <c r="N41" s="5"/>
-      <c r="O41" s="5"/>
-      <c r="P41" s="5"/>
-      <c r="Q41" s="5"/>
-      <c r="R41" s="5"/>
-      <c r="S41" s="5"/>
-      <c r="T41" s="5"/>
-      <c r="U41" s="5"/>
-      <c r="V41" s="5"/>
-      <c r="W41" s="5"/>
-      <c r="X41" s="5"/>
-      <c r="Y41" s="5"/>
-      <c r="Z41" s="5"/>
-      <c r="AA41" s="5"/>
-      <c r="AB41" s="5"/>
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="7"/>
+      <c r="S41" s="7"/>
+      <c r="T41" s="7"/>
+      <c r="U41" s="7"/>
+      <c r="V41" s="7"/>
+      <c r="W41" s="7"/>
+      <c r="X41" s="7"/>
+      <c r="Y41" s="7"/>
+      <c r="Z41" s="7"/>
+      <c r="AA41" s="7"/>
+      <c r="AB41" s="7"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="5"/>
-      <c r="N42" s="5"/>
-      <c r="O42" s="5"/>
-      <c r="P42" s="5"/>
-      <c r="Q42" s="5"/>
-      <c r="R42" s="5"/>
-      <c r="S42" s="5"/>
-      <c r="T42" s="5"/>
-      <c r="U42" s="5"/>
-      <c r="V42" s="5"/>
-      <c r="W42" s="5"/>
-      <c r="X42" s="5"/>
-      <c r="Y42" s="5"/>
-      <c r="Z42" s="5"/>
-      <c r="AA42" s="5"/>
-      <c r="AB42" s="5"/>
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="7"/>
+      <c r="R42" s="7"/>
+      <c r="S42" s="7"/>
+      <c r="T42" s="7"/>
+      <c r="U42" s="7"/>
+      <c r="V42" s="7"/>
+      <c r="W42" s="7"/>
+      <c r="X42" s="7"/>
+      <c r="Y42" s="7"/>
+      <c r="Z42" s="7"/>
+      <c r="AA42" s="7"/>
+      <c r="AB42" s="7"/>
     </row>
     <row r="43" ht="15.75" customHeight="1"/>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="19"/>
-      <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5"/>
-      <c r="O44" s="5"/>
-      <c r="P44" s="5"/>
-      <c r="Q44" s="5"/>
-      <c r="R44" s="5"/>
-      <c r="S44" s="5"/>
-      <c r="T44" s="5"/>
-      <c r="U44" s="5"/>
-      <c r="V44" s="5"/>
-      <c r="W44" s="5"/>
-      <c r="X44" s="5"/>
-      <c r="Y44" s="5"/>
-      <c r="Z44" s="5"/>
-      <c r="AA44" s="5"/>
-      <c r="AB44" s="5"/>
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="20"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="7"/>
+      <c r="P44" s="7"/>
+      <c r="Q44" s="7"/>
+      <c r="R44" s="7"/>
+      <c r="S44" s="7"/>
+      <c r="T44" s="7"/>
+      <c r="U44" s="7"/>
+      <c r="V44" s="7"/>
+      <c r="W44" s="7"/>
+      <c r="X44" s="7"/>
+      <c r="Y44" s="7"/>
+      <c r="Z44" s="7"/>
+      <c r="AA44" s="7"/>
+      <c r="AB44" s="7"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="19"/>
-      <c r="L45" s="5"/>
-      <c r="M45" s="5"/>
-      <c r="N45" s="5"/>
-      <c r="O45" s="5"/>
-      <c r="P45" s="5"/>
-      <c r="Q45" s="5"/>
-      <c r="R45" s="5"/>
-      <c r="S45" s="5"/>
-      <c r="T45" s="5"/>
-      <c r="U45" s="5"/>
-      <c r="V45" s="5"/>
-      <c r="W45" s="5"/>
-      <c r="X45" s="5"/>
-      <c r="Y45" s="5"/>
-      <c r="Z45" s="5"/>
-      <c r="AA45" s="5"/>
-      <c r="AB45" s="5"/>
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="20"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="7"/>
+      <c r="Q45" s="7"/>
+      <c r="R45" s="7"/>
+      <c r="S45" s="7"/>
+      <c r="T45" s="7"/>
+      <c r="U45" s="7"/>
+      <c r="V45" s="7"/>
+      <c r="W45" s="7"/>
+      <c r="X45" s="7"/>
+      <c r="Y45" s="7"/>
+      <c r="Z45" s="7"/>
+      <c r="AA45" s="7"/>
+      <c r="AB45" s="7"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
-      <c r="M46" s="5"/>
-      <c r="N46" s="5"/>
-      <c r="O46" s="5"/>
-      <c r="P46" s="5"/>
-      <c r="Q46" s="5"/>
-      <c r="R46" s="5"/>
-      <c r="S46" s="5"/>
-      <c r="T46" s="5"/>
-      <c r="U46" s="5"/>
-      <c r="V46" s="5"/>
-      <c r="W46" s="5"/>
-      <c r="X46" s="5"/>
-      <c r="Y46" s="5"/>
-      <c r="Z46" s="5"/>
-      <c r="AA46" s="5"/>
-      <c r="AB46" s="5"/>
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="7"/>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="7"/>
+      <c r="R46" s="7"/>
+      <c r="S46" s="7"/>
+      <c r="T46" s="7"/>
+      <c r="U46" s="7"/>
+      <c r="V46" s="7"/>
+      <c r="W46" s="7"/>
+      <c r="X46" s="7"/>
+      <c r="Y46" s="7"/>
+      <c r="Z46" s="7"/>
+      <c r="AA46" s="7"/>
+      <c r="AB46" s="7"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="5"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
-      <c r="L47" s="5"/>
-      <c r="M47" s="5"/>
-      <c r="N47" s="5"/>
-      <c r="O47" s="5"/>
-      <c r="P47" s="5"/>
-      <c r="Q47" s="5"/>
-      <c r="R47" s="5"/>
-      <c r="S47" s="5"/>
-      <c r="T47" s="5"/>
-      <c r="U47" s="5"/>
-      <c r="V47" s="5"/>
-      <c r="W47" s="5"/>
-      <c r="X47" s="5"/>
-      <c r="Y47" s="5"/>
-      <c r="Z47" s="5"/>
-      <c r="AA47" s="5"/>
-      <c r="AB47" s="5"/>
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="18"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="7"/>
+      <c r="S47" s="7"/>
+      <c r="T47" s="7"/>
+      <c r="U47" s="7"/>
+      <c r="V47" s="7"/>
+      <c r="W47" s="7"/>
+      <c r="X47" s="7"/>
+      <c r="Y47" s="7"/>
+      <c r="Z47" s="7"/>
+      <c r="AA47" s="7"/>
+      <c r="AB47" s="7"/>
     </row>
     <row r="48" ht="15.75" customHeight="1"/>
     <row r="49" ht="15.75" customHeight="1"/>

--- a/doc/CS673_SPPP_RiskManagement_team1.xlsx
+++ b/doc/CS673_SPPP_RiskManagement_team1.xlsx
@@ -9,7 +9,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="zMh60PQqSrNqEmsbEcWYMbspKXPzQui7r5WS7KeOkOc="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="D/Cpx7QplcMfAY6B2PUF4mgZIWc13zy/eFkypJnkP4k="/>
     </ext>
   </extLst>
 </workbook>
@@ -65,6 +65,333 @@
     <t>Status</t>
   </si>
   <si>
+    <t>Design and implementation</t>
+  </si>
+  <si>
+    <t>Improper design</t>
+  </si>
+  <si>
+    <t>Poor architectural decisions leading to implementation, security, and reliability issues</t>
+  </si>
+  <si>
+    <t>Design/Implementation Leader and all team members</t>
+  </si>
+  <si>
+    <t>End of class</t>
+  </si>
+  <si>
+    <t>Do what we can until the end of iteration 2. For iteration 3, it's too late to make major design changes.</t>
+  </si>
+  <si>
+    <t>As we come to the end of iteration 3, it's clear that this risk was a big issue for our project. It looks like we will have to cut scope to reach the deadline with a functioning project.</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Technology competence</t>
+  </si>
+  <si>
+    <t>Not familiar with Git</t>
+  </si>
+  <si>
+    <t>Configuration leader and all team members</t>
+  </si>
+  <si>
+    <t>end of class</t>
+  </si>
+  <si>
+    <t>Monitor commits and keep branches clean by following branching strategy laid out by config leader.</t>
+  </si>
+  <si>
+    <t>Git repo got messy through the end of iteration 2 into iteration 3. We have been making a concerted effort to delete unneeded branches and keep the repository in a consistent state. Still having a few issues.</t>
+  </si>
+  <si>
+    <t>Communication</t>
+  </si>
+  <si>
+    <t>inconsistent work</t>
+  </si>
+  <si>
+    <t>Variable output from week to week</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>end of iteration 3</t>
+  </si>
+  <si>
+    <t>Check in during team meetings, make sure everyone has support if life comes up or if that week's tasks are particularly time consuming.</t>
+  </si>
+  <si>
+    <t>Inconsistent output from week to week has had a negative effect on the final product. This can serve as a reminder to all of us to check in earlier, be firm about requirements, and be more willing to pivot when a certain approach is not panning out.</t>
+  </si>
+  <si>
+    <t>Closed</t>
+  </si>
+  <si>
+    <t>Not familiar with the framework used</t>
+  </si>
+  <si>
+    <t>Using Spring Boot and React</t>
+  </si>
+  <si>
+    <t>Design/Implementation Leader, security leader and all team members</t>
+  </si>
+  <si>
+    <t>Team members who are more familiar with the frameworks should collaborate and provide assistance when they can.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">By the end of iteration 3, all team members were able to become familiar with the frameworks and make contributions to either the Spring Boot or React code bases. </t>
+  </si>
+  <si>
+    <t>duplicate work</t>
+  </si>
+  <si>
+    <t>Team members independently complete the same documentation or feature</t>
+  </si>
+  <si>
+    <t>team leader and all members</t>
+  </si>
+  <si>
+    <t>Keep doing what we're doing. Having each team member give a small status update at each meeting is helpful to avoid duplicate work.</t>
+  </si>
+  <si>
+    <t>Work has been split among team members. Distinct tasks and areas have prevented this from being an issue for the most part. We did end up having a problem on the other end of the spectrum though. With only one person assigned to some areas, other work was blocked while waiting for feature delivery or debugging.</t>
+  </si>
+  <si>
+    <t>Management</t>
+  </si>
+  <si>
+    <t>lack of management skills</t>
+  </si>
+  <si>
+    <t>Difficulty managing group personalities and steering the project in the right direction. Roadblocks not removed easily</t>
+  </si>
+  <si>
+    <t>Do our best! Communicate constantly, be respectful, open, and honest</t>
+  </si>
+  <si>
+    <t>There have been some management issues throughout the project, not due to any one team member, but for the group as a whole. Looking back, there were several moments where our course could have been corrected by a strong voice advocating for best practices and holding people accountable.</t>
+  </si>
+  <si>
+    <t>improper planning</t>
+  </si>
+  <si>
+    <t>Ineffective meetings, missing key deliverables, unclear project direction</t>
+  </si>
+  <si>
+    <t>Meet frequently and stay in contact over discord to align on key deliverables in remaining iterations.</t>
+  </si>
+  <si>
+    <t>A few key deliverables were missed, leading to rushed implementation at the last moments with little time for proper testing.</t>
+  </si>
+  <si>
+    <t>Messy code</t>
+  </si>
+  <si>
+    <t>Code with syntax errors and code smells</t>
+  </si>
+  <si>
+    <t>QA leader and all team members</t>
+  </si>
+  <si>
+    <t>End of iteration 3</t>
+  </si>
+  <si>
+    <t>Refactor when necessary. Use Sonarqube for quality scanning</t>
+  </si>
+  <si>
+    <t>We were not able to integrate sonarqube into the pipeline, but use of maven plugins Spotless and Sonarlint allowed for code cleanup in the IDE.</t>
+  </si>
+  <si>
+    <t>improper task assignments</t>
+  </si>
+  <si>
+    <t>Wrong tasks assigned to wrong team members</t>
+  </si>
+  <si>
+    <t>Team leader and all members</t>
+  </si>
+  <si>
+    <t>Keep tasks in Jira organized, with clear goals for each team member during each iteration</t>
+  </si>
+  <si>
+    <t>At the end of iteration 3, team members had appropriate tasks and everyone contributed to their assigned areas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing </t>
+  </si>
+  <si>
+    <t>Not enough testing</t>
+  </si>
+  <si>
+    <t>self-explanatory</t>
+  </si>
+  <si>
+    <t>QA leader/security leader and all team members</t>
+  </si>
+  <si>
+    <t>Continue writing unit and integration tests through iteration 3. Increase branch coverage as high as possible.</t>
+  </si>
+  <si>
+    <t>At the end of iteration 3, there are unit tests for most classes, and integration tests for all controllers. That brings our test coverage to approximately 90%. If we exclude domain classes which are mostly generated, test coverage will be above 90%.</t>
+  </si>
+  <si>
+    <t>Not familiar with unit testing</t>
+  </si>
+  <si>
+    <t>Self explanatory</t>
+  </si>
+  <si>
+    <t>Review testing methodologies and testing metrics. Collaborate on testing when necessary.</t>
+  </si>
+  <si>
+    <t>Some issues with testing, but the team is working through them together</t>
+  </si>
+  <si>
+    <t>Personnel</t>
+  </si>
+  <si>
+    <t>Loss team members</t>
+  </si>
+  <si>
+    <t>One or more team members drop the class</t>
+  </si>
+  <si>
+    <t>Redefine the project scope if necessary, and assign the tasks to other team members.</t>
+  </si>
+  <si>
+    <t>Nobody is dropping the class at this point</t>
+  </si>
+  <si>
+    <t>add new team members</t>
+  </si>
+  <si>
+    <t>All team members</t>
+  </si>
+  <si>
+    <t>Redefine scope and split current tasks if necessary</t>
+  </si>
+  <si>
+    <t>I hope we don't add more team members....</t>
+  </si>
+  <si>
+    <t>Lack of motivation or responsibility</t>
+  </si>
+  <si>
+    <t>One or more team members have not been given engaging or important tasks</t>
+  </si>
+  <si>
+    <t>Check in each week with each team member. How are your tasks going? Is there enough to do? Do you need support?</t>
+  </si>
+  <si>
+    <t>All team members are involved and working to help the group succeed</t>
+  </si>
+  <si>
+    <t>worked on wrong components</t>
+  </si>
+  <si>
+    <t>Tasks were not detailed enough, work completed for wrong area of the project</t>
+  </si>
+  <si>
+    <t>End of iteration 1</t>
+  </si>
+  <si>
+    <t>Use team meetings and Jira tasks to ensure that everyone's responsibilities are clear</t>
+  </si>
+  <si>
+    <t>Everybody has their assigned areas and tasks are clear. No confusion as to who is working on what.</t>
+  </si>
+  <si>
+    <t>useless work</t>
+  </si>
+  <si>
+    <t>Work unrelated to project</t>
+  </si>
+  <si>
+    <t>End of iteration 0</t>
+  </si>
+  <si>
+    <t>Discuss planned tasks together, update Jira to reflect current priorities</t>
+  </si>
+  <si>
+    <t>No work is being completed that's unrelated, but Jira needs to be updated more consistently</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Requirements </t>
+  </si>
+  <si>
+    <t>unclear requirements</t>
+  </si>
+  <si>
+    <t>Features are not described in explicit detail. Not enough information to begin implementation</t>
+  </si>
+  <si>
+    <t>Requirements leader and all team members</t>
+  </si>
+  <si>
+    <t>middle of iteration 1</t>
+  </si>
+  <si>
+    <t>Send out user surveys to gain insight into potential features. Discuss and refine requirements in meetings during weeks 1 and 2</t>
+  </si>
+  <si>
+    <t>All planned requirements are detailed and clear.</t>
+  </si>
+  <si>
+    <t>scope creep</t>
+  </si>
+  <si>
+    <t>Scope expands without being properly managed</t>
+  </si>
+  <si>
+    <t>End of iteration 2</t>
+  </si>
+  <si>
+    <t>Keep requirements focused on key features, discuss requirement additions at team meetings before officially adding them to the project</t>
+  </si>
+  <si>
+    <t>Scope creep is not an issue. If anything we'll be cutting scope</t>
+  </si>
+  <si>
+    <t>constant requirements changes</t>
+  </si>
+  <si>
+    <t>Requirements are updated repeatedly as new features are discussed/desired</t>
+  </si>
+  <si>
+    <t>Cement base requirements during weeks 1 and 2. Develop plan for introducing future requirements changes.</t>
+  </si>
+  <si>
+    <t>Requirements are stable</t>
+  </si>
+  <si>
+    <t>Not familiar with the programming language used</t>
+  </si>
+  <si>
+    <t>Using Javascript and Java</t>
+  </si>
+  <si>
+    <t>Research Java from perspective of assigned area if necessary</t>
+  </si>
+  <si>
+    <t>All team members are familiar with the programming languages.</t>
+  </si>
+  <si>
+    <t>Other technology unfamiliarity</t>
+  </si>
+  <si>
+    <t>Confirm tools to be used during project, research any that we're unfamiliar with</t>
+  </si>
+  <si>
+    <t>No unfamiliarity with other technologies</t>
+  </si>
+  <si>
+    <t>improper technology stack</t>
+  </si>
+  <si>
     <t>Integration and deployment</t>
   </si>
   <si>
@@ -74,337 +401,10 @@
     <t>Build/config leader and all</t>
   </si>
   <si>
-    <t>End of class</t>
-  </si>
-  <si>
-    <t>All current code will be merged into dev branch, with any new code being developed on feature branches. This wll allow for a consistent dev build for integration testing and deployment testing.</t>
-  </si>
-  <si>
-    <t>Taken on by config leader. In progress, with potential deployment to Heroku.</t>
-  </si>
-  <si>
-    <t>Open</t>
-  </si>
-  <si>
-    <t>Design and implementation</t>
-  </si>
-  <si>
-    <t>Improper design</t>
-  </si>
-  <si>
-    <t>Poor architectural decisions leading to implementation, security, and reliability issues</t>
-  </si>
-  <si>
-    <t>Design/Implementation Leader and all team members</t>
-  </si>
-  <si>
-    <t>End of iteration 2</t>
-  </si>
-  <si>
-    <t>Do what we can until the end of iteration 2. For iteration 3, it's too late to make major design changes.</t>
-  </si>
-  <si>
-    <t>There are a few issues with our design, but the team has managed them by controlling scope and being realistic about what can be included for each iteration.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Testing </t>
-  </si>
-  <si>
-    <t>Not enough testing</t>
-  </si>
-  <si>
-    <t>self-explanatory</t>
-  </si>
-  <si>
-    <t>QA leader/security leader and all team members</t>
-  </si>
-  <si>
-    <t>End of iteration 3</t>
-  </si>
-  <si>
-    <t>Continue writing unit and integration tests through iteration 3. Increase branch coverage as high as possible.</t>
-  </si>
-  <si>
-    <t>Unit test coverage around 85% currently. Integration testing and branch coverage for unit tests will be the iteration 3 focus.</t>
-  </si>
-  <si>
-    <t>Technology competence</t>
-  </si>
-  <si>
-    <t>Not familiar with unit testing</t>
-  </si>
-  <si>
-    <t>Self explanatory</t>
-  </si>
-  <si>
-    <t>Review testing methodologies and testing metrics. Collaborate on testing when necessary.</t>
-  </si>
-  <si>
-    <t>Some issues with testing, but the team is working through them together</t>
-  </si>
-  <si>
-    <t>Management</t>
-  </si>
-  <si>
-    <t>improper task assignments</t>
-  </si>
-  <si>
-    <t>Wrong tasks assigned to wrong team members</t>
-  </si>
-  <si>
-    <t>Team leader and all members</t>
-  </si>
-  <si>
-    <t>end of class</t>
-  </si>
-  <si>
-    <t>Keep tasks in Jira organized, with clear goals for each team member during each iteration</t>
-  </si>
-  <si>
-    <t>Tasks have not been assigned to the wrong team members, but tasks in Jira aren't organized by iteration. Need to clean up Jira and align tasks with iterations.</t>
-  </si>
-  <si>
-    <t>Messy code</t>
-  </si>
-  <si>
-    <t>This code needs to clean up its room and take a shower</t>
-  </si>
-  <si>
-    <t>QA leader and all team members</t>
-  </si>
-  <si>
-    <t>Refactor when necessary. Use Sonarqube for quality scanning</t>
-  </si>
-  <si>
-    <t>With such a tight timeline, some messy code is expected. Unit testing and clean-as-we-code practices will be important in maintaining as clean a codebase as possible.</t>
-  </si>
-  <si>
-    <t>improper planning</t>
-  </si>
-  <si>
-    <t>Ineffective meetings, missing key deliverables, unclear project direction</t>
-  </si>
-  <si>
-    <t>All</t>
-  </si>
-  <si>
-    <t>Meet frequently and stay in contact over discord to align on key deliverables in remaining iterations.</t>
-  </si>
-  <si>
-    <t>Deliverables have been on time as of end of iteration 1. The group as a whole is functioning well to achieve deliverables and plan for future iterations. Meetings are productive</t>
-  </si>
-  <si>
-    <t>Not familiar with the framework used</t>
-  </si>
-  <si>
-    <t>Using Spring Boot and React</t>
-  </si>
-  <si>
-    <t>Design/Implementation Leader, security leader and all team members</t>
-  </si>
-  <si>
-    <t>Team members who are more familiar with the frameworks should collaborate and provide assistance when they can.</t>
-  </si>
-  <si>
-    <t>This risk will likely remain open through the end of the class, due to the shortened timeline.</t>
-  </si>
-  <si>
-    <t>Communication</t>
-  </si>
-  <si>
-    <t>duplicate work</t>
-  </si>
-  <si>
-    <t>Team members independently complete the same documentation or feature</t>
-  </si>
-  <si>
-    <t>team leader and all members</t>
-  </si>
-  <si>
-    <t>Keep doing what we're doing. Having each team member give a small status update at each meeting is helpful to avoid duplicate work.</t>
-  </si>
-  <si>
-    <t>Work has been split among team members. Distinct tasks and areas have prevented this from being an issue.</t>
-  </si>
-  <si>
-    <t>inconsistent work</t>
-  </si>
-  <si>
-    <t>Variable output from week to week</t>
-  </si>
-  <si>
-    <t>Check in during team meetings, make sure everyone has support if life comes up or if that week's tasks are particularly time consuming.</t>
-  </si>
-  <si>
-    <t>No issues so far</t>
-  </si>
-  <si>
-    <t>lack of management skills</t>
-  </si>
-  <si>
-    <t>Let's be real, we're not C-suite executives. Unless you are, in which case my apologies!</t>
-  </si>
-  <si>
-    <t>Do our best! Communicate constantly, be respectful, open, and honest</t>
-  </si>
-  <si>
-    <t>Team is working well together to control scope and manage distribution of responsibilities. No management issues</t>
-  </si>
-  <si>
-    <t>Not familiar with Git</t>
-  </si>
-  <si>
-    <t>Configuration leader and all team members</t>
-  </si>
-  <si>
-    <t>Start/middle of iteration 1</t>
-  </si>
-  <si>
-    <t>Monitor commits and keep branches clean by following branching strategy laid out by config leader.</t>
-  </si>
-  <si>
-    <t>So far so good. As a team, our repo is a little messy. But everyone is familiar with Git and has pushed code successfully.</t>
-  </si>
-  <si>
-    <t>Personnel</t>
-  </si>
-  <si>
-    <t>Lack of motivation or responsibility</t>
-  </si>
-  <si>
-    <t>One or more team members have not been given engaging or important tasks</t>
-  </si>
-  <si>
-    <t>All team members</t>
-  </si>
-  <si>
-    <t>Check in each week with each team member. How are your tasks going? Is there enough to do? Do you need support?</t>
-  </si>
-  <si>
-    <t>All team members are involved and working to help the group succeed</t>
-  </si>
-  <si>
-    <t>Closed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Requirements </t>
-  </si>
-  <si>
-    <t>unclear requirements</t>
-  </si>
-  <si>
-    <t>Features are not described in explicit detail. Not enough information to begin implementation</t>
-  </si>
-  <si>
-    <t>Requirements leader and all team members</t>
-  </si>
-  <si>
-    <t>middle of iteration 1</t>
-  </si>
-  <si>
-    <t>Send out user surveys to gain insight into potential features. Discuss and refine requirements in meetings during weeks 1 and 2</t>
-  </si>
-  <si>
-    <t>All planned requirements are detailed and clear.</t>
-  </si>
-  <si>
-    <t>worked on wrong components</t>
-  </si>
-  <si>
-    <t>Tasks were not detailed enough, work completed for wrong area of the project</t>
-  </si>
-  <si>
-    <t>End of iteration 1</t>
-  </si>
-  <si>
-    <t>Use team meetings and Jira tasks to ensure that everyone's responsibilities are clear</t>
-  </si>
-  <si>
-    <t>Everybody has their assigned areas and tasks are clear. No confusion as to who is working on what.</t>
-  </si>
-  <si>
-    <t>add new team members</t>
-  </si>
-  <si>
-    <t>Redefine scope and split current tasks if necessary</t>
-  </si>
-  <si>
-    <t>I hope we don't add more team members....</t>
-  </si>
-  <si>
-    <t>Loss team members</t>
-  </si>
-  <si>
-    <t>One or more team members drop the class</t>
-  </si>
-  <si>
-    <t>Redefine the project scope if necessary, and assign the tasks to other team members.</t>
-  </si>
-  <si>
-    <t>Nobody is dropping the class at this point</t>
-  </si>
-  <si>
-    <t>scope creep</t>
-  </si>
-  <si>
-    <t>Scope expands without being properly managed</t>
-  </si>
-  <si>
-    <t>Keep requirements focused on key features, discuss requirement additions at team meetings before officially adding them to the project</t>
-  </si>
-  <si>
-    <t>Scope creep is not an issue. If anything we'll be cutting scope</t>
-  </si>
-  <si>
-    <t>constant requirements changes</t>
-  </si>
-  <si>
-    <t>Requirements are updated repeatedly as new features are discussed/desired</t>
-  </si>
-  <si>
-    <t>Cement base requirements during weeks 1 and 2. Develop plan for introducing future requirements changes.</t>
-  </si>
-  <si>
-    <t>Requirements are stable</t>
-  </si>
-  <si>
-    <t>Not familiar with the programming language used</t>
-  </si>
-  <si>
-    <t>Using Javascript and Java</t>
-  </si>
-  <si>
-    <t>Research Java from perspective of assigned area if necessary</t>
-  </si>
-  <si>
-    <t>All team members are familiar with the programming languages.</t>
-  </si>
-  <si>
-    <t>Other technology unfamiliarity</t>
-  </si>
-  <si>
-    <t>End of iteration 0</t>
-  </si>
-  <si>
-    <t>Confirm tools to be used during project, research any that we're unfamiliar with</t>
-  </si>
-  <si>
-    <t>No unfamiliarity with other technologies</t>
-  </si>
-  <si>
-    <t>useless work</t>
-  </si>
-  <si>
-    <t>Work unrelated to project</t>
-  </si>
-  <si>
-    <t>Discuss planned tasks together, update Jira to reflect current priorities</t>
-  </si>
-  <si>
-    <t>No work is being completed that's unrelated, but Jira needs to be updated more consistently</t>
-  </si>
-  <si>
-    <t>improper technology stack</t>
+    <t>App is up on Heroku as of end of iteration 3</t>
+  </si>
+  <si>
+    <t>Excellent work by config leader to get app up and running on Heroku.</t>
   </si>
 </sst>
 </file>
@@ -412,8 +412,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="m/d"/>
-    <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
+    <numFmt numFmtId="165" formatCode="m/d"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -437,12 +437,12 @@
       <name val="Arial"/>
     </font>
     <font>
-      <color rgb="FF000000"/>
+      <b/>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -488,24 +488,18 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -513,22 +507,28 @@
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -763,7 +763,7 @@
     <col customWidth="1" min="9" max="9" width="10.75"/>
     <col customWidth="1" min="10" max="10" width="11.75"/>
     <col customWidth="1" min="11" max="11" width="18.5"/>
-    <col customWidth="1" min="12" max="12" width="16.38"/>
+    <col customWidth="1" min="12" max="12" width="31.75"/>
     <col customWidth="1" min="13" max="13" width="9.88"/>
   </cols>
   <sheetData>
@@ -824,87 +824,87 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="3">
-        <v>23.0</v>
+        <v>19.0</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="6">
+      <c r="D3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="5">
         <v>4.0</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <v>4.0</v>
       </c>
-      <c r="G3" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="H3" s="6">
+      <c r="G3" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="H3" s="5">
         <v>1.0</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="6" t="s">
         <v>16</v>
       </c>
+      <c r="J3" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="K3" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="7"/>
+        <v>20</v>
+      </c>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="3">
-        <v>19.0</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>20</v>
+        <v>18.0</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="6">
+      <c r="D4" s="4"/>
+      <c r="E4" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="F4" s="5">
         <v>4.0</v>
       </c>
-      <c r="F4" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="G4" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="H4" s="6">
+      <c r="G4" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="H4" s="5">
         <v>2.0</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K4" s="3" t="s">
@@ -914,53 +914,51 @@
         <v>26</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="7"/>
+        <v>20</v>
+      </c>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="6"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="3">
-        <v>22.0</v>
-      </c>
-      <c r="B5" s="4" t="s">
+        <v>7.0</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="F5" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="G5" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="H5" s="6">
-        <v>3.0</v>
-      </c>
+      <c r="E5" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="H5" s="5"/>
       <c r="I5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="5" t="s">
         <v>31</v>
       </c>
       <c r="K5" s="3" t="s">
@@ -970,30 +968,30 @@
         <v>33</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="6"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="3">
-        <v>16.0</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>34</v>
+        <v>14.0</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>35</v>
@@ -1001,55 +999,53 @@
       <c r="D6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>2.0</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <v>2.0</v>
       </c>
-      <c r="G6" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="H6" s="6">
+      <c r="G6" s="5">
         <v>4.0</v>
       </c>
+      <c r="H6" s="5"/>
       <c r="I6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="5" t="s">
         <v>31</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="6"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="3">
-        <v>11.0</v>
+        <v>4.0</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>40</v>
@@ -1057,303 +1053,291 @@
       <c r="D7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="G7" s="5">
         <v>2.0</v>
       </c>
-      <c r="F7" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="G7" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="H7" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="I7" s="3" t="s">
+      <c r="H7" s="5"/>
+      <c r="I7" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="L7" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L7" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="M7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="7"/>
-      <c r="AA7" s="7"/>
-      <c r="AB7" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="6"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="3">
-        <v>21.0</v>
+        <v>13.0</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>46</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>3.0</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <v>3.0</v>
       </c>
-      <c r="G8" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="H8" s="6">
-        <v>6.0</v>
-      </c>
-      <c r="I8" s="3" t="s">
+      <c r="G8" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="I8" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="J8" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="K8" s="3" t="s">
+      <c r="L8" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="M8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="7"/>
-      <c r="Z8" s="7"/>
-      <c r="AA8" s="7"/>
-      <c r="AB8" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="6"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="3">
         <v>12.0</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="F9" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="G9" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="F9" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="G9" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="H9" s="6">
-        <v>7.0</v>
-      </c>
-      <c r="I9" s="8" t="s">
+      <c r="L9" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="J9" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="M9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="7"/>
-      <c r="AA9" s="7"/>
-      <c r="AB9" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="6"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="3">
-        <v>14.0</v>
-      </c>
-      <c r="B10" s="4" t="s">
+        <v>21.0</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="G10" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="F10" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="G10" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="H10" s="6">
-        <v>8.0</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7"/>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="7"/>
-      <c r="AA10" s="7"/>
-      <c r="AB10" s="7"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="6"/>
+      <c r="AB10" s="6"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="3">
-        <v>4.0</v>
+        <v>11.0</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="E11" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="F11" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="G11" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="J11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E11" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="F11" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="G11" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="H11" s="6">
-        <v>9.0</v>
-      </c>
-      <c r="I11" s="9" t="s">
+      <c r="L11" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="J11" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="M11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="7"/>
-      <c r="X11" s="7"/>
-      <c r="Y11" s="7"/>
-      <c r="Z11" s="7"/>
-      <c r="AA11" s="7"/>
-      <c r="AB11" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
+      <c r="AA11" s="6"/>
+      <c r="AB11" s="6"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="10" t="s">
+        <v>22.0</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="F12" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="G12" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="H12" s="5"/>
+      <c r="I12" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E12" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="F12" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="G12" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="H12" s="6">
-        <v>10.0</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>43</v>
+      <c r="J12" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>69</v>
@@ -1362,54 +1346,52 @@
         <v>70</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="7"/>
-      <c r="AA12" s="7"/>
-      <c r="AB12" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="6"/>
+      <c r="AB12" s="6"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="3">
-        <v>13.0</v>
+        <v>16.0</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="F13" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="G13" s="5">
         <v>3.0</v>
       </c>
-      <c r="F13" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="G13" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="H13" s="6">
-        <v>11.0</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>43</v>
+      <c r="H13" s="5"/>
+      <c r="I13" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>73</v>
@@ -1418,372 +1400,372 @@
         <v>74</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="7"/>
-      <c r="X13" s="7"/>
-      <c r="Y13" s="7"/>
-      <c r="Z13" s="7"/>
-      <c r="AA13" s="7"/>
-      <c r="AB13" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="6"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="3">
-        <v>18.0</v>
+        <v>1.0</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="11">
+        <v>2.0</v>
+      </c>
+      <c r="F14" s="11">
+        <v>4.0</v>
+      </c>
+      <c r="G14" s="11">
+        <v>4.0</v>
+      </c>
+      <c r="H14" s="11"/>
+      <c r="I14" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J14" s="12"/>
+      <c r="K14" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="M14" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="F14" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="G14" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="H14" s="6">
-        <v>12.0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
-      <c r="W14" s="7"/>
-      <c r="X14" s="7"/>
-      <c r="Y14" s="7"/>
-      <c r="Z14" s="7"/>
-      <c r="AA14" s="7"/>
-      <c r="AB14" s="7"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
+      <c r="AA14" s="6"/>
+      <c r="AB14" s="6"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="3">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="4"/>
+      <c r="E15" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="F15" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="G15" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="H15" s="5"/>
+      <c r="I15" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="J15" s="14">
+        <v>45180.0</v>
+      </c>
+      <c r="K15" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E15" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="F15" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="G15" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="H15" s="6"/>
-      <c r="I15" s="9" t="s">
+      <c r="L15" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="J15" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>85</v>
-      </c>
       <c r="M15" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="7"/>
-      <c r="W15" s="7"/>
-      <c r="X15" s="7"/>
-      <c r="Y15" s="7"/>
-      <c r="Z15" s="7"/>
-      <c r="AA15" s="7"/>
-      <c r="AB15" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="6"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="B16" s="4" t="s">
+        <v>3.0</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="F16" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="G16" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="L16" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E16" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="F16" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="G16" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="H16" s="6"/>
-      <c r="I16" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>93</v>
-      </c>
       <c r="M16" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
-      <c r="W16" s="7"/>
-      <c r="X16" s="7"/>
-      <c r="Y16" s="7"/>
-      <c r="Z16" s="7"/>
-      <c r="AA16" s="7"/>
-      <c r="AB16" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="6"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="3">
         <v>5.0</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>61</v>
+      <c r="B17" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E17" s="6">
+        <v>89</v>
+      </c>
+      <c r="E17" s="5">
         <v>2.0</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="5">
         <v>4.0</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="5">
         <v>3.0</v>
       </c>
-      <c r="H17" s="6"/>
+      <c r="H17" s="5"/>
       <c r="I17" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>96</v>
+        <v>30</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>90</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="7"/>
-      <c r="W17" s="7"/>
-      <c r="X17" s="7"/>
-      <c r="Y17" s="7"/>
-      <c r="Z17" s="7"/>
-      <c r="AA17" s="7"/>
-      <c r="AB17" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
+      <c r="AA17" s="6"/>
+      <c r="AB17" s="6"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E18" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="F18" s="5">
         <v>2.0</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="6">
+      <c r="G18" s="5">
         <v>1.0</v>
       </c>
-      <c r="F18" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="G18" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="H18" s="6"/>
+      <c r="H18" s="5"/>
       <c r="I18" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="J18" s="11">
-        <v>45180.0</v>
+        <v>30</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>95</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="7"/>
-      <c r="W18" s="7"/>
-      <c r="X18" s="7"/>
-      <c r="Y18" s="7"/>
-      <c r="Z18" s="7"/>
-      <c r="AA18" s="7"/>
-      <c r="AB18" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="6"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>80</v>
+        <v>8.0</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>98</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="F19" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="G19" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J19" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="K19" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E19" s="13">
-        <v>2.0</v>
-      </c>
-      <c r="F19" s="13">
-        <v>4.0</v>
-      </c>
-      <c r="G19" s="13">
-        <v>4.0</v>
-      </c>
-      <c r="H19" s="13"/>
-      <c r="I19" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="J19" s="14"/>
-      <c r="K19" s="12" t="s">
+      <c r="L19" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="L19" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="M19" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
-      <c r="T19" s="7"/>
-      <c r="U19" s="7"/>
-      <c r="V19" s="7"/>
-      <c r="W19" s="7"/>
-      <c r="X19" s="7"/>
-      <c r="Y19" s="7"/>
-      <c r="Z19" s="7"/>
-      <c r="AA19" s="7"/>
-      <c r="AB19" s="7"/>
+      <c r="M19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="6"/>
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="6"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="3">
         <v>9.0</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="E20" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="F20" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="G20" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="H20" s="5"/>
+      <c r="I20" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J20" s="5" t="s">
         <v>107</v>
-      </c>
-      <c r="E20" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="F20" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="G20" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="H20" s="6"/>
-      <c r="I20" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>24</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>108</v>
@@ -1792,30 +1774,30 @@
         <v>109</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="7"/>
-      <c r="U20" s="7"/>
-      <c r="V20" s="7"/>
-      <c r="W20" s="7"/>
-      <c r="X20" s="7"/>
-      <c r="Y20" s="7"/>
-      <c r="Z20" s="7"/>
-      <c r="AA20" s="7"/>
-      <c r="AB20" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="6"/>
+      <c r="AA20" s="6"/>
+      <c r="AB20" s="6"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="3">
         <v>10.0</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>110</v>
@@ -1823,21 +1805,21 @@
       <c r="D21" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="5">
         <v>1.0</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="5">
         <v>2.0</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="5">
         <v>2.0</v>
       </c>
-      <c r="H21" s="6"/>
+      <c r="H21" s="5"/>
       <c r="I21" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>91</v>
+        <v>101</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>102</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>112</v>
@@ -1846,30 +1828,30 @@
         <v>113</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="7"/>
-      <c r="W21" s="7"/>
-      <c r="X21" s="7"/>
-      <c r="Y21" s="7"/>
-      <c r="Z21" s="7"/>
-      <c r="AA21" s="7"/>
-      <c r="AB21" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="6"/>
+      <c r="AA21" s="6"/>
+      <c r="AB21" s="6"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="3">
         <v>15.0</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>114</v>
@@ -1877,21 +1859,21 @@
       <c r="D22" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="5">
         <v>1.0</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="5">
         <v>4.0</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="5">
         <v>3.0</v>
       </c>
-      <c r="H22" s="6"/>
+      <c r="H22" s="5"/>
       <c r="I22" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>91</v>
+        <v>81</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>102</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>116</v>
@@ -1900,432 +1882,430 @@
         <v>117</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="7"/>
-      <c r="U22" s="7"/>
-      <c r="V22" s="7"/>
-      <c r="W22" s="7"/>
-      <c r="X22" s="7"/>
-      <c r="Y22" s="7"/>
-      <c r="Z22" s="7"/>
-      <c r="AA22" s="7"/>
-      <c r="AB22" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="6"/>
+      <c r="Z22" s="6"/>
+      <c r="AA22" s="6"/>
+      <c r="AB22" s="6"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="3">
         <v>17.0</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="F23" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="G23" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="H23" s="5"/>
+      <c r="I23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="M23" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="F23" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="G23" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="H23" s="6"/>
-      <c r="I23" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="7"/>
-      <c r="T23" s="7"/>
-      <c r="U23" s="7"/>
-      <c r="V23" s="7"/>
-      <c r="W23" s="7"/>
-      <c r="X23" s="7"/>
-      <c r="Y23" s="7"/>
-      <c r="Z23" s="7"/>
-      <c r="AA23" s="7"/>
-      <c r="AB23" s="7"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="6"/>
+      <c r="Z23" s="6"/>
+      <c r="AA23" s="6"/>
+      <c r="AB23" s="6"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="3">
-        <v>6.0</v>
+        <v>20.0</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E24" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="F24" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="G24" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="H24" s="6"/>
+        <v>121</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
       <c r="I24" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>125</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="J24" s="16"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
       <c r="M24" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
-      <c r="S24" s="7"/>
-      <c r="T24" s="7"/>
-      <c r="U24" s="7"/>
-      <c r="V24" s="7"/>
-      <c r="W24" s="7"/>
-      <c r="X24" s="7"/>
-      <c r="Y24" s="7"/>
-      <c r="Z24" s="7"/>
-      <c r="AA24" s="7"/>
-      <c r="AB24" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6"/>
+      <c r="W24" s="6"/>
+      <c r="X24" s="6"/>
+      <c r="Y24" s="6"/>
+      <c r="Z24" s="6"/>
+      <c r="AA24" s="6"/>
+      <c r="AB24" s="6"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="3">
-        <v>20.0</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="2" t="s">
+        <v>23.0</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="F25" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="G25" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="H25" s="5"/>
+      <c r="I25" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L25" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J25" s="17"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
       <c r="M25" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="7"/>
-      <c r="T25" s="7"/>
-      <c r="U25" s="7"/>
-      <c r="V25" s="7"/>
-      <c r="W25" s="7"/>
-      <c r="X25" s="7"/>
-      <c r="Y25" s="7"/>
-      <c r="Z25" s="7"/>
-      <c r="AA25" s="7"/>
-      <c r="AB25" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="6"/>
+      <c r="W25" s="6"/>
+      <c r="X25" s="6"/>
+      <c r="Y25" s="6"/>
+      <c r="Z25" s="6"/>
+      <c r="AA25" s="6"/>
+      <c r="AB25" s="6"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="7"/>
-      <c r="S26" s="7"/>
-      <c r="T26" s="7"/>
-      <c r="U26" s="7"/>
-      <c r="V26" s="7"/>
-      <c r="W26" s="7"/>
-      <c r="X26" s="7"/>
-      <c r="Y26" s="7"/>
-      <c r="Z26" s="7"/>
-      <c r="AA26" s="7"/>
-      <c r="AB26" s="7"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="6"/>
+      <c r="V26" s="6"/>
+      <c r="W26" s="6"/>
+      <c r="X26" s="6"/>
+      <c r="Y26" s="6"/>
+      <c r="Z26" s="6"/>
+      <c r="AA26" s="6"/>
+      <c r="AB26" s="6"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="D27" s="7"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="D27" s="6"/>
       <c r="E27" s="18"/>
       <c r="F27" s="18"/>
       <c r="G27" s="18"/>
       <c r="H27" s="18"/>
-      <c r="I27" s="7"/>
+      <c r="I27" s="6"/>
       <c r="J27" s="19"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="7"/>
-      <c r="S27" s="7"/>
-      <c r="T27" s="7"/>
-      <c r="U27" s="7"/>
-      <c r="V27" s="7"/>
-      <c r="W27" s="7"/>
-      <c r="X27" s="7"/>
-      <c r="Y27" s="7"/>
-      <c r="Z27" s="7"/>
-      <c r="AA27" s="7"/>
-      <c r="AB27" s="7"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="6"/>
+      <c r="U27" s="6"/>
+      <c r="V27" s="6"/>
+      <c r="W27" s="6"/>
+      <c r="X27" s="6"/>
+      <c r="Y27" s="6"/>
+      <c r="Z27" s="6"/>
+      <c r="AA27" s="6"/>
+      <c r="AB27" s="6"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="D28" s="7"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="D28" s="6"/>
       <c r="E28" s="18"/>
       <c r="F28" s="18"/>
       <c r="G28" s="18"/>
       <c r="H28" s="18"/>
-      <c r="I28" s="7"/>
+      <c r="I28" s="6"/>
       <c r="J28" s="19"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
-      <c r="P28" s="7"/>
-      <c r="Q28" s="7"/>
-      <c r="R28" s="7"/>
-      <c r="S28" s="7"/>
-      <c r="T28" s="7"/>
-      <c r="U28" s="7"/>
-      <c r="V28" s="7"/>
-      <c r="W28" s="7"/>
-      <c r="X28" s="7"/>
-      <c r="Y28" s="7"/>
-      <c r="Z28" s="7"/>
-      <c r="AA28" s="7"/>
-      <c r="AB28" s="7"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6"/>
+      <c r="T28" s="6"/>
+      <c r="U28" s="6"/>
+      <c r="V28" s="6"/>
+      <c r="W28" s="6"/>
+      <c r="X28" s="6"/>
+      <c r="Y28" s="6"/>
+      <c r="Z28" s="6"/>
+      <c r="AA28" s="6"/>
+      <c r="AB28" s="6"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="D29" s="7"/>
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="D29" s="6"/>
       <c r="E29" s="18"/>
       <c r="F29" s="18"/>
       <c r="G29" s="18"/>
       <c r="H29" s="18"/>
-      <c r="I29" s="7"/>
+      <c r="I29" s="6"/>
       <c r="J29" s="19"/>
       <c r="K29" s="20"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
-      <c r="P29" s="7"/>
-      <c r="Q29" s="7"/>
-      <c r="R29" s="7"/>
-      <c r="S29" s="7"/>
-      <c r="T29" s="7"/>
-      <c r="U29" s="7"/>
-      <c r="V29" s="7"/>
-      <c r="W29" s="7"/>
-      <c r="X29" s="7"/>
-      <c r="Y29" s="7"/>
-      <c r="Z29" s="7"/>
-      <c r="AA29" s="7"/>
-      <c r="AB29" s="7"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="6"/>
+      <c r="U29" s="6"/>
+      <c r="V29" s="6"/>
+      <c r="W29" s="6"/>
+      <c r="X29" s="6"/>
+      <c r="Y29" s="6"/>
+      <c r="Z29" s="6"/>
+      <c r="AA29" s="6"/>
+      <c r="AB29" s="6"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="D30" s="7"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="D30" s="6"/>
       <c r="E30" s="18"/>
       <c r="F30" s="18"/>
       <c r="G30" s="18"/>
       <c r="H30" s="18"/>
-      <c r="I30" s="7"/>
+      <c r="I30" s="6"/>
       <c r="J30" s="19"/>
       <c r="K30" s="20"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
-      <c r="P30" s="7"/>
-      <c r="Q30" s="7"/>
-      <c r="R30" s="7"/>
-      <c r="S30" s="7"/>
-      <c r="T30" s="7"/>
-      <c r="U30" s="7"/>
-      <c r="V30" s="7"/>
-      <c r="W30" s="7"/>
-      <c r="X30" s="7"/>
-      <c r="Y30" s="7"/>
-      <c r="Z30" s="7"/>
-      <c r="AA30" s="7"/>
-      <c r="AB30" s="7"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
+      <c r="S30" s="6"/>
+      <c r="T30" s="6"/>
+      <c r="U30" s="6"/>
+      <c r="V30" s="6"/>
+      <c r="W30" s="6"/>
+      <c r="X30" s="6"/>
+      <c r="Y30" s="6"/>
+      <c r="Z30" s="6"/>
+      <c r="AA30" s="6"/>
+      <c r="AB30" s="6"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="D31" s="7"/>
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="D31" s="6"/>
       <c r="E31" s="18"/>
       <c r="F31" s="18"/>
       <c r="G31" s="18"/>
       <c r="H31" s="18"/>
-      <c r="I31" s="7"/>
+      <c r="I31" s="6"/>
       <c r="J31" s="19"/>
       <c r="K31" s="20"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="7"/>
-      <c r="O31" s="7"/>
-      <c r="P31" s="7"/>
-      <c r="Q31" s="7"/>
-      <c r="R31" s="7"/>
-      <c r="S31" s="7"/>
-      <c r="T31" s="7"/>
-      <c r="U31" s="7"/>
-      <c r="V31" s="7"/>
-      <c r="W31" s="7"/>
-      <c r="X31" s="7"/>
-      <c r="Y31" s="7"/>
-      <c r="Z31" s="7"/>
-      <c r="AA31" s="7"/>
-      <c r="AB31" s="7"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="6"/>
+      <c r="U31" s="6"/>
+      <c r="V31" s="6"/>
+      <c r="W31" s="6"/>
+      <c r="X31" s="6"/>
+      <c r="Y31" s="6"/>
+      <c r="Z31" s="6"/>
+      <c r="AA31" s="6"/>
+      <c r="AB31" s="6"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="D32" s="7"/>
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="D32" s="6"/>
       <c r="E32" s="18"/>
       <c r="F32" s="18"/>
       <c r="G32" s="18"/>
       <c r="H32" s="18"/>
-      <c r="I32" s="7"/>
+      <c r="I32" s="6"/>
       <c r="J32" s="19"/>
       <c r="K32" s="20"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="7"/>
-      <c r="O32" s="7"/>
-      <c r="P32" s="7"/>
-      <c r="Q32" s="7"/>
-      <c r="R32" s="7"/>
-      <c r="S32" s="7"/>
-      <c r="T32" s="7"/>
-      <c r="U32" s="7"/>
-      <c r="V32" s="7"/>
-      <c r="W32" s="7"/>
-      <c r="X32" s="7"/>
-      <c r="Y32" s="7"/>
-      <c r="Z32" s="7"/>
-      <c r="AA32" s="7"/>
-      <c r="AB32" s="7"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="6"/>
+      <c r="S32" s="6"/>
+      <c r="T32" s="6"/>
+      <c r="U32" s="6"/>
+      <c r="V32" s="6"/>
+      <c r="W32" s="6"/>
+      <c r="X32" s="6"/>
+      <c r="Y32" s="6"/>
+      <c r="Z32" s="6"/>
+      <c r="AA32" s="6"/>
+      <c r="AB32" s="6"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="7"/>
-      <c r="O33" s="7"/>
-      <c r="P33" s="7"/>
-      <c r="Q33" s="7"/>
-      <c r="R33" s="7"/>
-      <c r="S33" s="7"/>
-      <c r="T33" s="7"/>
-      <c r="U33" s="7"/>
-      <c r="V33" s="7"/>
-      <c r="W33" s="7"/>
-      <c r="X33" s="7"/>
-      <c r="Y33" s="7"/>
-      <c r="Z33" s="7"/>
-      <c r="AA33" s="7"/>
-      <c r="AB33" s="7"/>
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="6"/>
+      <c r="S33" s="6"/>
+      <c r="T33" s="6"/>
+      <c r="U33" s="6"/>
+      <c r="V33" s="6"/>
+      <c r="W33" s="6"/>
+      <c r="X33" s="6"/>
+      <c r="Y33" s="6"/>
+      <c r="Z33" s="6"/>
+      <c r="AA33" s="6"/>
+      <c r="AB33" s="6"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="7"/>
-      <c r="O34" s="7"/>
-      <c r="P34" s="7"/>
-      <c r="Q34" s="7"/>
-      <c r="R34" s="7"/>
-      <c r="S34" s="7"/>
-      <c r="T34" s="7"/>
-      <c r="U34" s="7"/>
-      <c r="V34" s="7"/>
-      <c r="W34" s="7"/>
-      <c r="X34" s="7"/>
-      <c r="Y34" s="7"/>
-      <c r="Z34" s="7"/>
-      <c r="AA34" s="7"/>
-      <c r="AB34" s="7"/>
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="6"/>
+      <c r="S34" s="6"/>
+      <c r="T34" s="6"/>
+      <c r="U34" s="6"/>
+      <c r="V34" s="6"/>
+      <c r="W34" s="6"/>
+      <c r="X34" s="6"/>
+      <c r="Y34" s="6"/>
+      <c r="Z34" s="6"/>
+      <c r="AA34" s="6"/>
+      <c r="AB34" s="6"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="4"/>
@@ -2335,27 +2315,27 @@
       <c r="E35" s="18"/>
       <c r="F35" s="18"/>
       <c r="G35" s="18"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
       <c r="K35" s="4"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="7"/>
-      <c r="N35" s="7"/>
-      <c r="O35" s="7"/>
-      <c r="P35" s="7"/>
-      <c r="Q35" s="7"/>
-      <c r="R35" s="7"/>
-      <c r="S35" s="7"/>
-      <c r="T35" s="7"/>
-      <c r="U35" s="7"/>
-      <c r="V35" s="7"/>
-      <c r="W35" s="7"/>
-      <c r="X35" s="7"/>
-      <c r="Y35" s="7"/>
-      <c r="Z35" s="7"/>
-      <c r="AA35" s="7"/>
-      <c r="AB35" s="7"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="6"/>
+      <c r="S35" s="6"/>
+      <c r="T35" s="6"/>
+      <c r="U35" s="6"/>
+      <c r="V35" s="6"/>
+      <c r="W35" s="6"/>
+      <c r="X35" s="6"/>
+      <c r="Y35" s="6"/>
+      <c r="Z35" s="6"/>
+      <c r="AA35" s="6"/>
+      <c r="AB35" s="6"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="4"/>
@@ -2365,27 +2345,27 @@
       <c r="E36" s="18"/>
       <c r="F36" s="18"/>
       <c r="G36" s="18"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
       <c r="K36" s="4"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="7"/>
-      <c r="N36" s="7"/>
-      <c r="O36" s="7"/>
-      <c r="P36" s="7"/>
-      <c r="Q36" s="7"/>
-      <c r="R36" s="7"/>
-      <c r="S36" s="7"/>
-      <c r="T36" s="7"/>
-      <c r="U36" s="7"/>
-      <c r="V36" s="7"/>
-      <c r="W36" s="7"/>
-      <c r="X36" s="7"/>
-      <c r="Y36" s="7"/>
-      <c r="Z36" s="7"/>
-      <c r="AA36" s="7"/>
-      <c r="AB36" s="7"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="6"/>
+      <c r="S36" s="6"/>
+      <c r="T36" s="6"/>
+      <c r="U36" s="6"/>
+      <c r="V36" s="6"/>
+      <c r="W36" s="6"/>
+      <c r="X36" s="6"/>
+      <c r="Y36" s="6"/>
+      <c r="Z36" s="6"/>
+      <c r="AA36" s="6"/>
+      <c r="AB36" s="6"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="4"/>
@@ -2395,85 +2375,85 @@
       <c r="E37" s="18"/>
       <c r="F37" s="18"/>
       <c r="G37" s="18"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
       <c r="K37" s="4"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="7"/>
-      <c r="N37" s="7"/>
-      <c r="O37" s="7"/>
-      <c r="P37" s="7"/>
-      <c r="Q37" s="7"/>
-      <c r="R37" s="7"/>
-      <c r="S37" s="7"/>
-      <c r="T37" s="7"/>
-      <c r="U37" s="7"/>
-      <c r="V37" s="7"/>
-      <c r="W37" s="7"/>
-      <c r="X37" s="7"/>
-      <c r="Y37" s="7"/>
-      <c r="Z37" s="7"/>
-      <c r="AA37" s="7"/>
-      <c r="AB37" s="7"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="6"/>
+      <c r="R37" s="6"/>
+      <c r="S37" s="6"/>
+      <c r="T37" s="6"/>
+      <c r="U37" s="6"/>
+      <c r="V37" s="6"/>
+      <c r="W37" s="6"/>
+      <c r="X37" s="6"/>
+      <c r="Y37" s="6"/>
+      <c r="Z37" s="6"/>
+      <c r="AA37" s="6"/>
+      <c r="AB37" s="6"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
       <c r="E38" s="18"/>
       <c r="F38" s="18"/>
       <c r="G38" s="18"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
       <c r="K38" s="4"/>
-      <c r="L38" s="7"/>
-      <c r="M38" s="7"/>
-      <c r="N38" s="7"/>
-      <c r="O38" s="7"/>
-      <c r="P38" s="7"/>
-      <c r="Q38" s="7"/>
-      <c r="R38" s="7"/>
-      <c r="S38" s="7"/>
-      <c r="T38" s="7"/>
-      <c r="U38" s="7"/>
-      <c r="V38" s="7"/>
-      <c r="W38" s="7"/>
-      <c r="X38" s="7"/>
-      <c r="Y38" s="7"/>
-      <c r="Z38" s="7"/>
-      <c r="AA38" s="7"/>
-      <c r="AB38" s="7"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="6"/>
+      <c r="R38" s="6"/>
+      <c r="S38" s="6"/>
+      <c r="T38" s="6"/>
+      <c r="U38" s="6"/>
+      <c r="V38" s="6"/>
+      <c r="W38" s="6"/>
+      <c r="X38" s="6"/>
+      <c r="Y38" s="6"/>
+      <c r="Z38" s="6"/>
+      <c r="AA38" s="6"/>
+      <c r="AB38" s="6"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
       <c r="E39" s="18"/>
       <c r="F39" s="18"/>
       <c r="G39" s="18"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
       <c r="K39" s="4"/>
-      <c r="L39" s="7"/>
-      <c r="M39" s="7"/>
-      <c r="N39" s="7"/>
-      <c r="O39" s="7"/>
-      <c r="P39" s="7"/>
-      <c r="Q39" s="7"/>
-      <c r="R39" s="7"/>
-      <c r="S39" s="7"/>
-      <c r="T39" s="7"/>
-      <c r="U39" s="7"/>
-      <c r="V39" s="7"/>
-      <c r="W39" s="7"/>
-      <c r="X39" s="7"/>
-      <c r="Y39" s="7"/>
-      <c r="Z39" s="7"/>
-      <c r="AA39" s="7"/>
-      <c r="AB39" s="7"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6"/>
+      <c r="R39" s="6"/>
+      <c r="S39" s="6"/>
+      <c r="T39" s="6"/>
+      <c r="U39" s="6"/>
+      <c r="V39" s="6"/>
+      <c r="W39" s="6"/>
+      <c r="X39" s="6"/>
+      <c r="Y39" s="6"/>
+      <c r="Z39" s="6"/>
+      <c r="AA39" s="6"/>
+      <c r="AB39" s="6"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="4"/>
@@ -2481,211 +2461,182 @@
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
       <c r="K40" s="4"/>
-      <c r="L40" s="7"/>
-      <c r="M40" s="7"/>
-      <c r="N40" s="7"/>
-      <c r="O40" s="7"/>
-      <c r="P40" s="7"/>
-      <c r="Q40" s="7"/>
-      <c r="R40" s="7"/>
-      <c r="S40" s="7"/>
-      <c r="T40" s="7"/>
-      <c r="U40" s="7"/>
-      <c r="V40" s="7"/>
-      <c r="W40" s="7"/>
-      <c r="X40" s="7"/>
-      <c r="Y40" s="7"/>
-      <c r="Z40" s="7"/>
-      <c r="AA40" s="7"/>
-      <c r="AB40" s="7"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6"/>
+      <c r="R40" s="6"/>
+      <c r="S40" s="6"/>
+      <c r="T40" s="6"/>
+      <c r="U40" s="6"/>
+      <c r="V40" s="6"/>
+      <c r="W40" s="6"/>
+      <c r="X40" s="6"/>
+      <c r="Y40" s="6"/>
+      <c r="Z40" s="6"/>
+      <c r="AA40" s="6"/>
+      <c r="AB40" s="6"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="7"/>
-      <c r="M41" s="7"/>
-      <c r="N41" s="7"/>
-      <c r="O41" s="7"/>
-      <c r="P41" s="7"/>
-      <c r="Q41" s="7"/>
-      <c r="R41" s="7"/>
-      <c r="S41" s="7"/>
-      <c r="T41" s="7"/>
-      <c r="U41" s="7"/>
-      <c r="V41" s="7"/>
-      <c r="W41" s="7"/>
-      <c r="X41" s="7"/>
-      <c r="Y41" s="7"/>
-      <c r="Z41" s="7"/>
-      <c r="AA41" s="7"/>
-      <c r="AB41" s="7"/>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="7"/>
-      <c r="M42" s="7"/>
-      <c r="N42" s="7"/>
-      <c r="O42" s="7"/>
-      <c r="P42" s="7"/>
-      <c r="Q42" s="7"/>
-      <c r="R42" s="7"/>
-      <c r="S42" s="7"/>
-      <c r="T42" s="7"/>
-      <c r="U42" s="7"/>
-      <c r="V42" s="7"/>
-      <c r="W42" s="7"/>
-      <c r="X42" s="7"/>
-      <c r="Y42" s="7"/>
-      <c r="Z42" s="7"/>
-      <c r="AA42" s="7"/>
-      <c r="AB42" s="7"/>
-    </row>
-    <row r="43" ht="15.75" customHeight="1"/>
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="6"/>
+      <c r="R41" s="6"/>
+      <c r="S41" s="6"/>
+      <c r="T41" s="6"/>
+      <c r="U41" s="6"/>
+      <c r="V41" s="6"/>
+      <c r="W41" s="6"/>
+      <c r="X41" s="6"/>
+      <c r="Y41" s="6"/>
+      <c r="Z41" s="6"/>
+      <c r="AA41" s="6"/>
+      <c r="AB41" s="6"/>
+    </row>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="20"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="6"/>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="6"/>
+      <c r="R43" s="6"/>
+      <c r="S43" s="6"/>
+      <c r="T43" s="6"/>
+      <c r="U43" s="6"/>
+      <c r="V43" s="6"/>
+      <c r="W43" s="6"/>
+      <c r="X43" s="6"/>
+      <c r="Y43" s="6"/>
+      <c r="Z43" s="6"/>
+      <c r="AA43" s="6"/>
+      <c r="AB43" s="6"/>
+    </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
       <c r="D44" s="4"/>
       <c r="E44" s="18"/>
       <c r="F44" s="18"/>
-      <c r="G44" s="7"/>
+      <c r="G44" s="6"/>
       <c r="H44" s="18"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
       <c r="K44" s="20"/>
-      <c r="L44" s="7"/>
-      <c r="M44" s="7"/>
-      <c r="N44" s="7"/>
-      <c r="O44" s="7"/>
-      <c r="P44" s="7"/>
-      <c r="Q44" s="7"/>
-      <c r="R44" s="7"/>
-      <c r="S44" s="7"/>
-      <c r="T44" s="7"/>
-      <c r="U44" s="7"/>
-      <c r="V44" s="7"/>
-      <c r="W44" s="7"/>
-      <c r="X44" s="7"/>
-      <c r="Y44" s="7"/>
-      <c r="Z44" s="7"/>
-      <c r="AA44" s="7"/>
-      <c r="AB44" s="7"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="6"/>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="6"/>
+      <c r="R44" s="6"/>
+      <c r="S44" s="6"/>
+      <c r="T44" s="6"/>
+      <c r="U44" s="6"/>
+      <c r="V44" s="6"/>
+      <c r="W44" s="6"/>
+      <c r="X44" s="6"/>
+      <c r="Y44" s="6"/>
+      <c r="Z44" s="6"/>
+      <c r="AA44" s="6"/>
+      <c r="AB44" s="6"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
       <c r="D45" s="4"/>
       <c r="E45" s="18"/>
       <c r="F45" s="18"/>
-      <c r="G45" s="7"/>
+      <c r="G45" s="6"/>
       <c r="H45" s="18"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="20"/>
-      <c r="L45" s="7"/>
-      <c r="M45" s="7"/>
-      <c r="N45" s="7"/>
-      <c r="O45" s="7"/>
-      <c r="P45" s="7"/>
-      <c r="Q45" s="7"/>
-      <c r="R45" s="7"/>
-      <c r="S45" s="7"/>
-      <c r="T45" s="7"/>
-      <c r="U45" s="7"/>
-      <c r="V45" s="7"/>
-      <c r="W45" s="7"/>
-      <c r="X45" s="7"/>
-      <c r="Y45" s="7"/>
-      <c r="Z45" s="7"/>
-      <c r="AA45" s="7"/>
-      <c r="AB45" s="7"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="6"/>
+      <c r="P45" s="6"/>
+      <c r="Q45" s="6"/>
+      <c r="R45" s="6"/>
+      <c r="S45" s="6"/>
+      <c r="T45" s="6"/>
+      <c r="U45" s="6"/>
+      <c r="V45" s="6"/>
+      <c r="W45" s="6"/>
+      <c r="X45" s="6"/>
+      <c r="Y45" s="6"/>
+      <c r="Z45" s="6"/>
+      <c r="AA45" s="6"/>
+      <c r="AB45" s="6"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
       <c r="D46" s="4"/>
       <c r="E46" s="18"/>
       <c r="F46" s="18"/>
-      <c r="G46" s="7"/>
+      <c r="G46" s="6"/>
       <c r="H46" s="18"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="7"/>
-      <c r="L46" s="7"/>
-      <c r="M46" s="7"/>
-      <c r="N46" s="7"/>
-      <c r="O46" s="7"/>
-      <c r="P46" s="7"/>
-      <c r="Q46" s="7"/>
-      <c r="R46" s="7"/>
-      <c r="S46" s="7"/>
-      <c r="T46" s="7"/>
-      <c r="U46" s="7"/>
-      <c r="V46" s="7"/>
-      <c r="W46" s="7"/>
-      <c r="X46" s="7"/>
-      <c r="Y46" s="7"/>
-      <c r="Z46" s="7"/>
-      <c r="AA46" s="7"/>
-      <c r="AB46" s="7"/>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="7"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="18"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
-      <c r="L47" s="7"/>
-      <c r="M47" s="7"/>
-      <c r="N47" s="7"/>
-      <c r="O47" s="7"/>
-      <c r="P47" s="7"/>
-      <c r="Q47" s="7"/>
-      <c r="R47" s="7"/>
-      <c r="S47" s="7"/>
-      <c r="T47" s="7"/>
-      <c r="U47" s="7"/>
-      <c r="V47" s="7"/>
-      <c r="W47" s="7"/>
-      <c r="X47" s="7"/>
-      <c r="Y47" s="7"/>
-      <c r="Z47" s="7"/>
-      <c r="AA47" s="7"/>
-      <c r="AB47" s="7"/>
-    </row>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="6"/>
+      <c r="P46" s="6"/>
+      <c r="Q46" s="6"/>
+      <c r="R46" s="6"/>
+      <c r="S46" s="6"/>
+      <c r="T46" s="6"/>
+      <c r="U46" s="6"/>
+      <c r="V46" s="6"/>
+      <c r="W46" s="6"/>
+      <c r="X46" s="6"/>
+      <c r="Y46" s="6"/>
+      <c r="Z46" s="6"/>
+      <c r="AA46" s="6"/>
+      <c r="AB46" s="6"/>
+    </row>
+    <row r="47" ht="15.75" customHeight="1"/>
     <row r="48" ht="15.75" customHeight="1"/>
     <row r="49" ht="15.75" customHeight="1"/>
     <row r="50" ht="15.75" customHeight="1"/>
@@ -3638,7 +3589,6 @@
     <row r="997" ht="15.75" customHeight="1"/>
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
